--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7452" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7472" uniqueCount="1968">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -5897,6 +5897,24 @@
   </si>
   <si>
     <t>https://u.to/CG4qIg</t>
+  </si>
+  <si>
+    <t>1184983065534148718</t>
+  </si>
+  <si>
+    <t>fluck58</t>
+  </si>
+  <si>
+    <t>https://discord.gg/vFJxM7X6r8</t>
+  </si>
+  <si>
+    <t>524647836143452161</t>
+  </si>
+  <si>
+    <t>v7_jiggzaw</t>
+  </si>
+  <si>
+    <t>https://discord.gg/SpJqNPaB6Y</t>
   </si>
 </sst>
 </file>
@@ -34489,30 +34507,80 @@
       </c>
     </row>
     <row r="746">
-      <c r="B746" s="2"/>
-      <c r="C746" s="3"/>
-      <c r="D746" s="1"/>
-      <c r="E746" s="1"/>
-      <c r="F746" s="1"/>
-      <c r="G746" s="1"/>
-      <c r="H746" s="1"/>
-      <c r="I746" s="1"/>
-      <c r="J746" s="1"/>
-      <c r="K746" s="1"/>
-      <c r="L746" s="1"/>
+      <c r="A746" s="1">
+        <v>745.0</v>
+      </c>
+      <c r="B746" s="2">
+        <v>45733.0</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G746" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H746" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I746" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J746" s="4" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K746" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L746" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="747">
-      <c r="B747" s="2"/>
-      <c r="C747" s="3"/>
-      <c r="D747" s="1"/>
-      <c r="E747" s="1"/>
-      <c r="F747" s="1"/>
-      <c r="G747" s="1"/>
-      <c r="H747" s="1"/>
-      <c r="I747" s="1"/>
-      <c r="J747" s="1"/>
-      <c r="K747" s="1"/>
-      <c r="L747" s="1"/>
+      <c r="A747" s="1">
+        <v>746.0</v>
+      </c>
+      <c r="B747" s="2">
+        <v>45733.0</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G747" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H747" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I747" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J747" s="4" t="s">
+        <v>1967</v>
+      </c>
+      <c r="K747" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L747" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="748">
       <c r="B748" s="2"/>
@@ -48195,7 +48263,9 @@
     <hyperlink r:id="rId742" ref="J743"/>
     <hyperlink r:id="rId743" ref="J744"/>
     <hyperlink r:id="rId744" ref="J745"/>
+    <hyperlink r:id="rId745" ref="J746"/>
+    <hyperlink r:id="rId746" ref="J747"/>
   </hyperlinks>
-  <drawing r:id="rId745"/>
+  <drawing r:id="rId747"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7472" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7552" uniqueCount="1992">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -5915,6 +5915,78 @@
   </si>
   <si>
     <t>https://discord.gg/SpJqNPaB6Y</t>
+  </si>
+  <si>
+    <t>1143501896875782154</t>
+  </si>
+  <si>
+    <t>filip57.</t>
+  </si>
+  <si>
+    <t>https://steamshort.guru/s/LNMTK</t>
+  </si>
+  <si>
+    <t>291045824551452672</t>
+  </si>
+  <si>
+    <t>jordy3523</t>
+  </si>
+  <si>
+    <t>https://steanmecormmunity.com/105941095</t>
+  </si>
+  <si>
+    <t>1198324403298111689</t>
+  </si>
+  <si>
+    <t>ionut999996_75145</t>
+  </si>
+  <si>
+    <t>https://in.mt/fah</t>
+  </si>
+  <si>
+    <t>1199469959714197617</t>
+  </si>
+  <si>
+    <t>fthes_63529</t>
+  </si>
+  <si>
+    <t>https://in.mt/fsq</t>
+  </si>
+  <si>
+    <t>498079857578737685</t>
+  </si>
+  <si>
+    <t>azlayer90</t>
+  </si>
+  <si>
+    <t>https://u.to/3jMvIg</t>
+  </si>
+  <si>
+    <t>196963902527897600</t>
+  </si>
+  <si>
+    <t>krocokxd</t>
+  </si>
+  <si>
+    <t>https://u.to/z94DIg</t>
+  </si>
+  <si>
+    <t>734730620688662529</t>
+  </si>
+  <si>
+    <t>springtrap6033</t>
+  </si>
+  <si>
+    <t>https://is.gd/LlH1Pj</t>
+  </si>
+  <si>
+    <t>917516388103503912</t>
+  </si>
+  <si>
+    <t>etraxe</t>
+  </si>
+  <si>
+    <t>https://u.to/FyUvIg</t>
   </si>
 </sst>
 </file>
@@ -34583,108 +34655,308 @@
       </c>
     </row>
     <row r="748">
-      <c r="B748" s="2"/>
-      <c r="C748" s="3"/>
-      <c r="D748" s="1"/>
-      <c r="E748" s="1"/>
-      <c r="F748" s="1"/>
-      <c r="G748" s="1"/>
-      <c r="H748" s="1"/>
-      <c r="I748" s="1"/>
-      <c r="J748" s="1"/>
-      <c r="K748" s="1"/>
-      <c r="L748" s="1"/>
+      <c r="A748" s="1">
+        <v>747.0</v>
+      </c>
+      <c r="B748" s="2">
+        <v>45734.0</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E748" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G748" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H748" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I748" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J748" s="4" t="s">
+        <v>1970</v>
+      </c>
+      <c r="K748" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L748" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="749">
-      <c r="B749" s="2"/>
-      <c r="C749" s="3"/>
-      <c r="D749" s="1"/>
-      <c r="E749" s="1"/>
-      <c r="F749" s="1"/>
-      <c r="G749" s="1"/>
-      <c r="H749" s="1"/>
-      <c r="I749" s="1"/>
-      <c r="J749" s="1"/>
-      <c r="K749" s="1"/>
-      <c r="L749" s="1"/>
+      <c r="A749" s="1">
+        <v>748.0</v>
+      </c>
+      <c r="B749" s="2">
+        <v>45734.0</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G749" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H749" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I749" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J749" s="4" t="s">
+        <v>1973</v>
+      </c>
+      <c r="K749" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L749" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="750">
-      <c r="B750" s="2"/>
-      <c r="C750" s="3"/>
-      <c r="D750" s="1"/>
-      <c r="E750" s="1"/>
-      <c r="F750" s="1"/>
-      <c r="G750" s="1"/>
-      <c r="H750" s="1"/>
-      <c r="I750" s="1"/>
-      <c r="J750" s="1"/>
-      <c r="K750" s="1"/>
-      <c r="L750" s="1"/>
+      <c r="A750" s="1">
+        <v>749.0</v>
+      </c>
+      <c r="B750" s="2">
+        <v>45734.0</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G750" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H750" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I750" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J750" s="4" t="s">
+        <v>1976</v>
+      </c>
+      <c r="K750" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L750" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="751">
-      <c r="B751" s="2"/>
-      <c r="C751" s="3"/>
-      <c r="D751" s="1"/>
-      <c r="E751" s="1"/>
-      <c r="F751" s="1"/>
-      <c r="G751" s="1"/>
-      <c r="H751" s="1"/>
-      <c r="I751" s="1"/>
-      <c r="J751" s="1"/>
-      <c r="K751" s="1"/>
-      <c r="L751" s="1"/>
+      <c r="A751" s="1">
+        <v>750.0</v>
+      </c>
+      <c r="B751" s="2">
+        <v>45735.0</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F751" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G751" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H751" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I751" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J751" s="4" t="s">
+        <v>1979</v>
+      </c>
+      <c r="K751" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L751" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="752">
-      <c r="B752" s="2"/>
-      <c r="C752" s="3"/>
-      <c r="D752" s="1"/>
-      <c r="E752" s="1"/>
-      <c r="F752" s="1"/>
-      <c r="G752" s="1"/>
-      <c r="H752" s="1"/>
-      <c r="I752" s="1"/>
-      <c r="J752" s="1"/>
-      <c r="K752" s="1"/>
-      <c r="L752" s="1"/>
+      <c r="A752" s="1">
+        <v>751.0</v>
+      </c>
+      <c r="B752" s="2">
+        <v>45736.0</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F752" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G752" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H752" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I752" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J752" s="4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="K752" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L752" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="753">
-      <c r="B753" s="2"/>
-      <c r="C753" s="3"/>
-      <c r="D753" s="1"/>
-      <c r="E753" s="1"/>
-      <c r="F753" s="1"/>
-      <c r="G753" s="1"/>
-      <c r="H753" s="1"/>
-      <c r="I753" s="1"/>
-      <c r="J753" s="1"/>
-      <c r="K753" s="1"/>
-      <c r="L753" s="1"/>
+      <c r="A753" s="1">
+        <v>752.0</v>
+      </c>
+      <c r="B753" s="2">
+        <v>45741.0</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G753" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H753" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I753" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J753" s="4" t="s">
+        <v>1985</v>
+      </c>
+      <c r="K753" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L753" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="754">
-      <c r="B754" s="2"/>
-      <c r="C754" s="3"/>
-      <c r="D754" s="1"/>
-      <c r="E754" s="1"/>
-      <c r="F754" s="1"/>
-      <c r="G754" s="1"/>
-      <c r="H754" s="1"/>
-      <c r="I754" s="1"/>
-      <c r="J754" s="1"/>
-      <c r="K754" s="1"/>
-      <c r="L754" s="1"/>
+      <c r="A754" s="1">
+        <v>753.0</v>
+      </c>
+      <c r="B754" s="2">
+        <v>45711.0</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F754" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G754" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H754" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I754" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J754" s="4" t="s">
+        <v>1988</v>
+      </c>
+      <c r="K754" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L754" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="755">
-      <c r="B755" s="2"/>
-      <c r="C755" s="3"/>
-      <c r="D755" s="1"/>
-      <c r="E755" s="1"/>
-      <c r="F755" s="1"/>
-      <c r="G755" s="1"/>
-      <c r="H755" s="1"/>
-      <c r="I755" s="1"/>
-      <c r="J755" s="1"/>
-      <c r="K755" s="1"/>
-      <c r="L755" s="1"/>
+      <c r="A755" s="1">
+        <v>754.0</v>
+      </c>
+      <c r="B755" s="2">
+        <v>45736.0</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E755" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G755" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H755" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I755" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J755" s="4" t="s">
+        <v>1991</v>
+      </c>
+      <c r="K755" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L755" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="756">
       <c r="B756" s="2"/>
@@ -48265,7 +48537,15 @@
     <hyperlink r:id="rId744" ref="J745"/>
     <hyperlink r:id="rId745" ref="J746"/>
     <hyperlink r:id="rId746" ref="J747"/>
+    <hyperlink r:id="rId747" ref="J748"/>
+    <hyperlink r:id="rId748" ref="J749"/>
+    <hyperlink r:id="rId749" ref="J750"/>
+    <hyperlink r:id="rId750" ref="J751"/>
+    <hyperlink r:id="rId751" ref="J752"/>
+    <hyperlink r:id="rId752" ref="J753"/>
+    <hyperlink r:id="rId753" ref="J754"/>
+    <hyperlink r:id="rId754" ref="J755"/>
   </hyperlinks>
-  <drawing r:id="rId747"/>
+  <drawing r:id="rId755"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11104" uniqueCount="2528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12574" uniqueCount="2675">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -7595,6 +7595,447 @@
   </si>
   <si>
     <t>https://u.to/4zkwIg</t>
+  </si>
+  <si>
+    <t>866614289502961674</t>
+  </si>
+  <si>
+    <t>915067752321003550</t>
+  </si>
+  <si>
+    <t>583739790176944168</t>
+  </si>
+  <si>
+    <t>759640377744818196</t>
+  </si>
+  <si>
+    <t>771294944924008448</t>
+  </si>
+  <si>
+    <t>506158108247064597</t>
+  </si>
+  <si>
+    <t>744826952166146058</t>
+  </si>
+  <si>
+    <t>846658501866291210</t>
+  </si>
+  <si>
+    <t>788163646701568040</t>
+  </si>
+  <si>
+    <t>768209494513025085</t>
+  </si>
+  <si>
+    <t>800057281709473833</t>
+  </si>
+  <si>
+    <t>753944410135199755</t>
+  </si>
+  <si>
+    <t>855182801450958891</t>
+  </si>
+  <si>
+    <t>908604529581391872</t>
+  </si>
+  <si>
+    <t>1066627592674885662</t>
+  </si>
+  <si>
+    <t>1112511069873786941</t>
+  </si>
+  <si>
+    <t>1088479788135633060</t>
+  </si>
+  <si>
+    <t>275015459353657344</t>
+  </si>
+  <si>
+    <t>246575333694898176</t>
+  </si>
+  <si>
+    <t>382547892763885568</t>
+  </si>
+  <si>
+    <t>1010315032090918932</t>
+  </si>
+  <si>
+    <t>1013771453067448381</t>
+  </si>
+  <si>
+    <t>807312370463801395</t>
+  </si>
+  <si>
+    <t>902296677023637606</t>
+  </si>
+  <si>
+    <t>608444982902390805</t>
+  </si>
+  <si>
+    <t>912230997729357884</t>
+  </si>
+  <si>
+    <t>478465539338010625</t>
+  </si>
+  <si>
+    <t>424894514142904320</t>
+  </si>
+  <si>
+    <t>892869553544134696</t>
+  </si>
+  <si>
+    <t>696677626965917716</t>
+  </si>
+  <si>
+    <t>1175209907327357079</t>
+  </si>
+  <si>
+    <t>809159543472783382</t>
+  </si>
+  <si>
+    <t>550278951164051456</t>
+  </si>
+  <si>
+    <t>829977885992288266</t>
+  </si>
+  <si>
+    <t>1142603671159443586</t>
+  </si>
+  <si>
+    <t>135621326978154496</t>
+  </si>
+  <si>
+    <t>777896908722536479</t>
+  </si>
+  <si>
+    <t>726334728164212768</t>
+  </si>
+  <si>
+    <t>969726775863169146</t>
+  </si>
+  <si>
+    <t>977982144829874206</t>
+  </si>
+  <si>
+    <t>921878456688607272</t>
+  </si>
+  <si>
+    <t>108080949773338215</t>
+  </si>
+  <si>
+    <t>851772137483141140</t>
+  </si>
+  <si>
+    <t>1080809497733382154</t>
+  </si>
+  <si>
+    <t>1064783837550366741</t>
+  </si>
+  <si>
+    <t>705309545345450005</t>
+  </si>
+  <si>
+    <t>952230201700532225</t>
+  </si>
+  <si>
+    <t>643600818133663756</t>
+  </si>
+  <si>
+    <t>803860456124317706</t>
+  </si>
+  <si>
+    <t>1172229999848333443</t>
+  </si>
+  <si>
+    <t>469676805188616200</t>
+  </si>
+  <si>
+    <t>1190895548602011730</t>
+  </si>
+  <si>
+    <t>574772007384645656</t>
+  </si>
+  <si>
+    <t>1125496698362400778</t>
+  </si>
+  <si>
+    <t>609632337369628682</t>
+  </si>
+  <si>
+    <t>1141302761108025435</t>
+  </si>
+  <si>
+    <t>937743825013731378</t>
+  </si>
+  <si>
+    <t>1194017984876920834</t>
+  </si>
+  <si>
+    <t>1194081081444544585</t>
+  </si>
+  <si>
+    <t>797460574534893588</t>
+  </si>
+  <si>
+    <t>924742761624772708</t>
+  </si>
+  <si>
+    <t>707691439349432321</t>
+  </si>
+  <si>
+    <t>878310373671968778</t>
+  </si>
+  <si>
+    <t>1077741170425335930</t>
+  </si>
+  <si>
+    <t>772574600974172181</t>
+  </si>
+  <si>
+    <t>660605567441698818</t>
+  </si>
+  <si>
+    <t>1005092768500170792</t>
+  </si>
+  <si>
+    <t>730860316983951400</t>
+  </si>
+  <si>
+    <t>959159616875397162</t>
+  </si>
+  <si>
+    <t>1040949071327805542</t>
+  </si>
+  <si>
+    <t>994226954595205251</t>
+  </si>
+  <si>
+    <t>1000720886065795103</t>
+  </si>
+  <si>
+    <t>1058590573407256636</t>
+  </si>
+  <si>
+    <t>613503888808738826</t>
+  </si>
+  <si>
+    <t>766953815018045451</t>
+  </si>
+  <si>
+    <t>491285777188388865</t>
+  </si>
+  <si>
+    <t>927681060488241173</t>
+  </si>
+  <si>
+    <t>974699722814144542</t>
+  </si>
+  <si>
+    <t>854619384979259392</t>
+  </si>
+  <si>
+    <t>742020269182287883</t>
+  </si>
+  <si>
+    <t>566708339669467150</t>
+  </si>
+  <si>
+    <t>988254540220489749</t>
+  </si>
+  <si>
+    <t>613152801903738881</t>
+  </si>
+  <si>
+    <t>713731634456690750</t>
+  </si>
+  <si>
+    <t>837840878953168946</t>
+  </si>
+  <si>
+    <t>821883840293371934</t>
+  </si>
+  <si>
+    <t>1121263674229784610</t>
+  </si>
+  <si>
+    <t>869681677314715708</t>
+  </si>
+  <si>
+    <t>508630109117218819</t>
+  </si>
+  <si>
+    <t>722816381388849292</t>
+  </si>
+  <si>
+    <t>659705581585825812</t>
+  </si>
+  <si>
+    <t>265635766783180800</t>
+  </si>
+  <si>
+    <t>995051850900447292</t>
+  </si>
+  <si>
+    <t>963265381928173579</t>
+  </si>
+  <si>
+    <t>1212477693270954107</t>
+  </si>
+  <si>
+    <t>693524234143531008</t>
+  </si>
+  <si>
+    <t>733398011501346877</t>
+  </si>
+  <si>
+    <t>729918310078218273</t>
+  </si>
+  <si>
+    <t>663697471175655424</t>
+  </si>
+  <si>
+    <t>622705246493343744</t>
+  </si>
+  <si>
+    <t>741637786867728495</t>
+  </si>
+  <si>
+    <t>740531624608792596</t>
+  </si>
+  <si>
+    <t>928329546783137802</t>
+  </si>
+  <si>
+    <t>870512163469533224</t>
+  </si>
+  <si>
+    <t>1102698026801307719</t>
+  </si>
+  <si>
+    <t>675413988133044224</t>
+  </si>
+  <si>
+    <t>975332201401053284</t>
+  </si>
+  <si>
+    <t>1079027691099017286</t>
+  </si>
+  <si>
+    <t>693652017549410384</t>
+  </si>
+  <si>
+    <t>1221756708381003817</t>
+  </si>
+  <si>
+    <t>707816874129227786</t>
+  </si>
+  <si>
+    <t>754820608239337502</t>
+  </si>
+  <si>
+    <t>694765878935552021</t>
+  </si>
+  <si>
+    <t>572576851025985566</t>
+  </si>
+  <si>
+    <t>1005566497927729322</t>
+  </si>
+  <si>
+    <t>775414044898492446</t>
+  </si>
+  <si>
+    <t>781480484379033600</t>
+  </si>
+  <si>
+    <t>787282063702491197</t>
+  </si>
+  <si>
+    <t>1039920505748201572</t>
+  </si>
+  <si>
+    <t>848194720994689054</t>
+  </si>
+  <si>
+    <t>975772597818118214</t>
+  </si>
+  <si>
+    <t>1002151084732731392</t>
+  </si>
+  <si>
+    <t>1083948667142144112</t>
+  </si>
+  <si>
+    <t>876284237215563857</t>
+  </si>
+  <si>
+    <t>1104491646206365796</t>
+  </si>
+  <si>
+    <t>1130198887811002508</t>
+  </si>
+  <si>
+    <t>1086809809212407850</t>
+  </si>
+  <si>
+    <t>1238509322833756191</t>
+  </si>
+  <si>
+    <t>855725869431652373</t>
+  </si>
+  <si>
+    <t>784532644955553827</t>
+  </si>
+  <si>
+    <t>1129763643282702487</t>
+  </si>
+  <si>
+    <t>984898875032756244</t>
+  </si>
+  <si>
+    <t>1092472177514778624</t>
+  </si>
+  <si>
+    <t>749663796838269028</t>
+  </si>
+  <si>
+    <t>473368718181924884</t>
+  </si>
+  <si>
+    <t>784146689556217887</t>
+  </si>
+  <si>
+    <t>383098096575578113</t>
+  </si>
+  <si>
+    <t>751045259240275978</t>
+  </si>
+  <si>
+    <t>997225638182277141</t>
+  </si>
+  <si>
+    <t>782498604849954826</t>
+  </si>
+  <si>
+    <t>1079507344070815865</t>
+  </si>
+  <si>
+    <t>1347285782188130384</t>
+  </si>
+  <si>
+    <t>1104711808725553273</t>
+  </si>
+  <si>
+    <t>316777890303836160</t>
+  </si>
+  <si>
+    <t>360395647020695553</t>
+  </si>
+  <si>
+    <t>1146946167826026566</t>
+  </si>
+  <si>
+    <t>863479539098714132</t>
   </si>
 </sst>
 </file>
@@ -50079,1915 +50520,5590 @@
       </c>
     </row>
     <row r="1112">
-      <c r="B1112" s="2"/>
-      <c r="C1112" s="3"/>
-      <c r="D1112" s="1"/>
-      <c r="E1112" s="1"/>
-      <c r="F1112" s="1"/>
-      <c r="G1112" s="1"/>
-      <c r="H1112" s="1"/>
-      <c r="I1112" s="1"/>
-      <c r="J1112" s="1"/>
-      <c r="K1112" s="1"/>
-      <c r="L1112" s="1"/>
+      <c r="A1112" s="1">
+        <v>1111.0</v>
+      </c>
+      <c r="B1112" s="2">
+        <v>44891.0</v>
+      </c>
+      <c r="C1112" s="3" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D1112" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1112" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1112" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1113">
-      <c r="B1113" s="2"/>
-      <c r="C1113" s="3"/>
-      <c r="D1113" s="1"/>
-      <c r="E1113" s="1"/>
-      <c r="F1113" s="1"/>
-      <c r="G1113" s="1"/>
-      <c r="H1113" s="1"/>
-      <c r="I1113" s="1"/>
-      <c r="J1113" s="1"/>
-      <c r="K1113" s="1"/>
-      <c r="L1113" s="1"/>
+      <c r="A1113" s="1">
+        <v>1112.0</v>
+      </c>
+      <c r="B1113" s="2">
+        <v>44929.0</v>
+      </c>
+      <c r="C1113" s="3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D1113" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1113" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1114">
-      <c r="B1114" s="2"/>
-      <c r="C1114" s="3"/>
-      <c r="D1114" s="1"/>
-      <c r="E1114" s="1"/>
-      <c r="F1114" s="1"/>
-      <c r="G1114" s="1"/>
-      <c r="H1114" s="1"/>
-      <c r="I1114" s="1"/>
-      <c r="J1114" s="1"/>
-      <c r="K1114" s="1"/>
-      <c r="L1114" s="1"/>
+      <c r="A1114" s="1">
+        <v>1113.0</v>
+      </c>
+      <c r="B1114" s="2">
+        <v>44945.0</v>
+      </c>
+      <c r="C1114" s="3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D1114" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1114" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1114" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1114" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1115">
-      <c r="B1115" s="2"/>
-      <c r="C1115" s="3"/>
-      <c r="D1115" s="1"/>
-      <c r="E1115" s="1"/>
-      <c r="F1115" s="1"/>
-      <c r="G1115" s="1"/>
-      <c r="H1115" s="1"/>
-      <c r="I1115" s="1"/>
-      <c r="J1115" s="1"/>
-      <c r="K1115" s="1"/>
-      <c r="L1115" s="1"/>
+      <c r="A1115" s="1">
+        <v>1114.0</v>
+      </c>
+      <c r="B1115" s="2">
+        <v>45066.0</v>
+      </c>
+      <c r="C1115" s="3" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D1115" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1115" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1116">
-      <c r="B1116" s="2"/>
-      <c r="C1116" s="3"/>
-      <c r="D1116" s="1"/>
-      <c r="E1116" s="1"/>
-      <c r="F1116" s="1"/>
-      <c r="G1116" s="1"/>
-      <c r="H1116" s="1"/>
-      <c r="I1116" s="1"/>
-      <c r="J1116" s="1"/>
-      <c r="K1116" s="1"/>
-      <c r="L1116" s="1"/>
+      <c r="A1116" s="1">
+        <v>1115.0</v>
+      </c>
+      <c r="B1116" s="2">
+        <v>45067.0</v>
+      </c>
+      <c r="C1116" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D1116" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1116" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1117">
-      <c r="B1117" s="2"/>
-      <c r="C1117" s="3"/>
-      <c r="D1117" s="1"/>
-      <c r="E1117" s="1"/>
-      <c r="F1117" s="1"/>
-      <c r="G1117" s="1"/>
-      <c r="H1117" s="1"/>
-      <c r="I1117" s="1"/>
-      <c r="J1117" s="1"/>
-      <c r="K1117" s="1"/>
-      <c r="L1117" s="1"/>
+      <c r="A1117" s="1">
+        <v>1116.0</v>
+      </c>
+      <c r="B1117" s="2">
+        <v>45068.0</v>
+      </c>
+      <c r="C1117" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D1117" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1117" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1117" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1117" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1118">
-      <c r="B1118" s="2"/>
-      <c r="C1118" s="3"/>
-      <c r="D1118" s="1"/>
-      <c r="E1118" s="1"/>
-      <c r="F1118" s="1"/>
-      <c r="G1118" s="1"/>
-      <c r="H1118" s="1"/>
-      <c r="I1118" s="1"/>
-      <c r="J1118" s="1"/>
-      <c r="K1118" s="1"/>
-      <c r="L1118" s="1"/>
+      <c r="A1118" s="1">
+        <v>1117.0</v>
+      </c>
+      <c r="B1118" s="2">
+        <v>45068.0</v>
+      </c>
+      <c r="C1118" s="3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1118" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1118" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1118" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1119">
-      <c r="B1119" s="2"/>
-      <c r="C1119" s="3"/>
-      <c r="D1119" s="1"/>
-      <c r="E1119" s="1"/>
-      <c r="F1119" s="1"/>
-      <c r="G1119" s="1"/>
-      <c r="H1119" s="1"/>
-      <c r="I1119" s="1"/>
-      <c r="J1119" s="1"/>
-      <c r="K1119" s="1"/>
-      <c r="L1119" s="1"/>
+      <c r="A1119" s="1">
+        <v>1118.0</v>
+      </c>
+      <c r="B1119" s="2">
+        <v>45083.0</v>
+      </c>
+      <c r="C1119" s="3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1119" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1119" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1119" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1120">
-      <c r="B1120" s="2"/>
-      <c r="C1120" s="3"/>
-      <c r="D1120" s="1"/>
-      <c r="E1120" s="1"/>
-      <c r="F1120" s="1"/>
-      <c r="G1120" s="1"/>
-      <c r="H1120" s="1"/>
-      <c r="I1120" s="1"/>
-      <c r="J1120" s="1"/>
-      <c r="K1120" s="1"/>
-      <c r="L1120" s="1"/>
+      <c r="A1120" s="1">
+        <v>1119.0</v>
+      </c>
+      <c r="B1120" s="2">
+        <v>45086.0</v>
+      </c>
+      <c r="C1120" s="3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D1120" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1120" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1120" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1121">
-      <c r="B1121" s="2"/>
-      <c r="C1121" s="3"/>
-      <c r="D1121" s="1"/>
-      <c r="E1121" s="1"/>
-      <c r="F1121" s="1"/>
-      <c r="G1121" s="1"/>
-      <c r="H1121" s="1"/>
-      <c r="I1121" s="1"/>
-      <c r="J1121" s="1"/>
-      <c r="K1121" s="1"/>
-      <c r="L1121" s="1"/>
+      <c r="A1121" s="1">
+        <v>1120.0</v>
+      </c>
+      <c r="B1121" s="2">
+        <v>45089.0</v>
+      </c>
+      <c r="C1121" s="3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D1121" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1121" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1121" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1122">
-      <c r="B1122" s="2"/>
-      <c r="C1122" s="3"/>
-      <c r="D1122" s="1"/>
-      <c r="E1122" s="1"/>
-      <c r="F1122" s="1"/>
-      <c r="G1122" s="1"/>
-      <c r="H1122" s="1"/>
-      <c r="I1122" s="1"/>
-      <c r="J1122" s="1"/>
-      <c r="K1122" s="1"/>
-      <c r="L1122" s="1"/>
+      <c r="A1122" s="1">
+        <v>1121.0</v>
+      </c>
+      <c r="B1122" s="2">
+        <v>45092.0</v>
+      </c>
+      <c r="C1122" s="3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D1122" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1122" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1122" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1122" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1123">
-      <c r="B1123" s="2"/>
-      <c r="C1123" s="3"/>
-      <c r="D1123" s="1"/>
-      <c r="E1123" s="1"/>
-      <c r="F1123" s="1"/>
-      <c r="G1123" s="1"/>
-      <c r="H1123" s="1"/>
-      <c r="I1123" s="1"/>
-      <c r="J1123" s="1"/>
-      <c r="K1123" s="1"/>
-      <c r="L1123" s="1"/>
+      <c r="A1123" s="1">
+        <v>1122.0</v>
+      </c>
+      <c r="B1123" s="2">
+        <v>45098.0</v>
+      </c>
+      <c r="C1123" s="3" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D1123" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1123" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1123" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1124">
-      <c r="B1124" s="2"/>
-      <c r="C1124" s="3"/>
-      <c r="D1124" s="1"/>
-      <c r="E1124" s="1"/>
-      <c r="F1124" s="1"/>
-      <c r="G1124" s="1"/>
-      <c r="H1124" s="1"/>
-      <c r="I1124" s="1"/>
-      <c r="J1124" s="1"/>
-      <c r="K1124" s="1"/>
-      <c r="L1124" s="1"/>
+      <c r="A1124" s="1">
+        <v>1123.0</v>
+      </c>
+      <c r="B1124" s="2">
+        <v>45099.0</v>
+      </c>
+      <c r="C1124" s="3" t="s">
+        <v>2540</v>
+      </c>
+      <c r="D1124" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1124" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1124" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1124" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1125">
-      <c r="B1125" s="2"/>
-      <c r="C1125" s="3"/>
-      <c r="D1125" s="1"/>
-      <c r="E1125" s="1"/>
-      <c r="F1125" s="1"/>
-      <c r="G1125" s="1"/>
-      <c r="H1125" s="1"/>
-      <c r="I1125" s="1"/>
-      <c r="J1125" s="1"/>
-      <c r="K1125" s="1"/>
-      <c r="L1125" s="1"/>
+      <c r="A1125" s="1">
+        <v>1124.0</v>
+      </c>
+      <c r="B1125" s="2">
+        <v>45127.0</v>
+      </c>
+      <c r="C1125" s="3" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D1125" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1125" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1125" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1126">
-      <c r="B1126" s="2"/>
-      <c r="C1126" s="3"/>
-      <c r="D1126" s="1"/>
-      <c r="E1126" s="1"/>
-      <c r="F1126" s="1"/>
-      <c r="G1126" s="1"/>
-      <c r="H1126" s="1"/>
-      <c r="I1126" s="1"/>
-      <c r="J1126" s="1"/>
-      <c r="K1126" s="1"/>
-      <c r="L1126" s="1"/>
+      <c r="A1126" s="1">
+        <v>1125.0</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>45134.0</v>
+      </c>
+      <c r="C1126" s="3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D1126" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1126" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1126" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1127">
-      <c r="B1127" s="2"/>
-      <c r="C1127" s="3"/>
-      <c r="D1127" s="1"/>
-      <c r="E1127" s="1"/>
-      <c r="F1127" s="1"/>
-      <c r="G1127" s="1"/>
-      <c r="H1127" s="1"/>
-      <c r="I1127" s="1"/>
-      <c r="J1127" s="1"/>
-      <c r="K1127" s="1"/>
-      <c r="L1127" s="1"/>
+      <c r="A1127" s="1">
+        <v>1126.0</v>
+      </c>
+      <c r="B1127" s="2">
+        <v>45136.0</v>
+      </c>
+      <c r="C1127" s="3" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D1127" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1127" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1127" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1128">
-      <c r="B1128" s="2"/>
-      <c r="C1128" s="3"/>
-      <c r="D1128" s="1"/>
-      <c r="E1128" s="1"/>
-      <c r="F1128" s="1"/>
-      <c r="G1128" s="1"/>
-      <c r="H1128" s="1"/>
-      <c r="I1128" s="1"/>
-      <c r="J1128" s="1"/>
-      <c r="K1128" s="1"/>
-      <c r="L1128" s="1"/>
+      <c r="A1128" s="1">
+        <v>1127.0</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>45138.0</v>
+      </c>
+      <c r="C1128" s="3" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D1128" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1128" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1128" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1128" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1129">
-      <c r="B1129" s="2"/>
-      <c r="C1129" s="3"/>
-      <c r="D1129" s="1"/>
-      <c r="E1129" s="1"/>
-      <c r="F1129" s="1"/>
-      <c r="G1129" s="1"/>
-      <c r="H1129" s="1"/>
-      <c r="I1129" s="1"/>
-      <c r="J1129" s="1"/>
-      <c r="K1129" s="1"/>
-      <c r="L1129" s="1"/>
+      <c r="A1129" s="1">
+        <v>1128.0</v>
+      </c>
+      <c r="B1129" s="2">
+        <v>45199.0</v>
+      </c>
+      <c r="C1129" s="3" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D1129" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1129" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1129" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1129" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1130">
-      <c r="B1130" s="2"/>
-      <c r="C1130" s="3"/>
-      <c r="D1130" s="1"/>
-      <c r="E1130" s="1"/>
-      <c r="F1130" s="1"/>
-      <c r="G1130" s="1"/>
-      <c r="H1130" s="1"/>
-      <c r="I1130" s="1"/>
-      <c r="J1130" s="1"/>
-      <c r="K1130" s="1"/>
-      <c r="L1130" s="1"/>
+      <c r="A1130" s="1">
+        <v>1129.0</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>45199.0</v>
+      </c>
+      <c r="C1130" s="3" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D1130" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1130" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1130" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1131">
-      <c r="B1131" s="2"/>
-      <c r="C1131" s="3"/>
-      <c r="D1131" s="1"/>
-      <c r="E1131" s="1"/>
-      <c r="F1131" s="1"/>
-      <c r="G1131" s="1"/>
-      <c r="H1131" s="1"/>
-      <c r="I1131" s="1"/>
-      <c r="J1131" s="1"/>
-      <c r="K1131" s="1"/>
-      <c r="L1131" s="1"/>
+      <c r="A1131" s="1">
+        <v>1130.0</v>
+      </c>
+      <c r="B1131" s="2">
+        <v>45214.0</v>
+      </c>
+      <c r="C1131" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D1131" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1131" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1131" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1132">
-      <c r="B1132" s="2"/>
-      <c r="C1132" s="3"/>
-      <c r="D1132" s="1"/>
-      <c r="E1132" s="1"/>
-      <c r="F1132" s="1"/>
-      <c r="G1132" s="1"/>
-      <c r="H1132" s="1"/>
-      <c r="I1132" s="1"/>
-      <c r="J1132" s="1"/>
-      <c r="K1132" s="1"/>
-      <c r="L1132" s="1"/>
+      <c r="A1132" s="1">
+        <v>1131.0</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="C1132" s="3" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D1132" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1132" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1132" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1133">
-      <c r="B1133" s="2"/>
-      <c r="C1133" s="3"/>
-      <c r="D1133" s="1"/>
-      <c r="E1133" s="1"/>
-      <c r="F1133" s="1"/>
-      <c r="G1133" s="1"/>
-      <c r="H1133" s="1"/>
-      <c r="I1133" s="1"/>
-      <c r="J1133" s="1"/>
-      <c r="K1133" s="1"/>
-      <c r="L1133" s="1"/>
+      <c r="A1133" s="1">
+        <v>1132.0</v>
+      </c>
+      <c r="B1133" s="2">
+        <v>45224.0</v>
+      </c>
+      <c r="C1133" s="3" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D1133" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1133" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1133" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1134">
-      <c r="B1134" s="2"/>
-      <c r="C1134" s="3"/>
-      <c r="D1134" s="1"/>
-      <c r="E1134" s="1"/>
-      <c r="F1134" s="1"/>
-      <c r="G1134" s="1"/>
-      <c r="H1134" s="1"/>
-      <c r="I1134" s="1"/>
-      <c r="J1134" s="1"/>
-      <c r="K1134" s="1"/>
-      <c r="L1134" s="1"/>
+      <c r="A1134" s="1">
+        <v>1133.0</v>
+      </c>
+      <c r="B1134" s="2">
+        <v>45224.0</v>
+      </c>
+      <c r="C1134" s="3" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D1134" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1134" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1134" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1134" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1135">
-      <c r="B1135" s="2"/>
-      <c r="C1135" s="3"/>
-      <c r="D1135" s="1"/>
-      <c r="E1135" s="1"/>
-      <c r="F1135" s="1"/>
-      <c r="G1135" s="1"/>
-      <c r="H1135" s="1"/>
-      <c r="I1135" s="1"/>
-      <c r="J1135" s="1"/>
-      <c r="K1135" s="1"/>
-      <c r="L1135" s="1"/>
+      <c r="A1135" s="1">
+        <v>1134.0</v>
+      </c>
+      <c r="B1135" s="2">
+        <v>45226.0</v>
+      </c>
+      <c r="C1135" s="3" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D1135" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1135" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1135" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1136">
-      <c r="B1136" s="2"/>
-      <c r="C1136" s="3"/>
-      <c r="D1136" s="1"/>
-      <c r="E1136" s="1"/>
-      <c r="F1136" s="1"/>
-      <c r="G1136" s="1"/>
-      <c r="H1136" s="1"/>
-      <c r="I1136" s="1"/>
-      <c r="J1136" s="1"/>
-      <c r="K1136" s="1"/>
-      <c r="L1136" s="1"/>
+      <c r="A1136" s="1">
+        <v>1135.0</v>
+      </c>
+      <c r="B1136" s="2">
+        <v>45226.0</v>
+      </c>
+      <c r="C1136" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D1136" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1136" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1136" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1137">
-      <c r="B1137" s="2"/>
-      <c r="C1137" s="3"/>
-      <c r="D1137" s="1"/>
-      <c r="E1137" s="1"/>
-      <c r="F1137" s="1"/>
-      <c r="G1137" s="1"/>
-      <c r="H1137" s="1"/>
-      <c r="I1137" s="1"/>
-      <c r="J1137" s="1"/>
-      <c r="K1137" s="1"/>
-      <c r="L1137" s="1"/>
+      <c r="A1137" s="1">
+        <v>1136.0</v>
+      </c>
+      <c r="B1137" s="2">
+        <v>45231.0</v>
+      </c>
+      <c r="C1137" s="3" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D1137" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1137" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1137" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1138">
-      <c r="B1138" s="2"/>
-      <c r="C1138" s="3"/>
-      <c r="D1138" s="1"/>
-      <c r="E1138" s="1"/>
-      <c r="F1138" s="1"/>
-      <c r="G1138" s="1"/>
-      <c r="H1138" s="1"/>
-      <c r="I1138" s="1"/>
-      <c r="J1138" s="1"/>
-      <c r="K1138" s="1"/>
-      <c r="L1138" s="1"/>
+      <c r="A1138" s="1">
+        <v>1137.0</v>
+      </c>
+      <c r="B1138" s="2">
+        <v>45240.0</v>
+      </c>
+      <c r="C1138" s="3" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D1138" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1138" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1138" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1139">
-      <c r="B1139" s="2"/>
-      <c r="C1139" s="3"/>
-      <c r="D1139" s="1"/>
-      <c r="E1139" s="1"/>
-      <c r="F1139" s="1"/>
-      <c r="G1139" s="1"/>
-      <c r="H1139" s="1"/>
-      <c r="I1139" s="1"/>
-      <c r="J1139" s="1"/>
-      <c r="K1139" s="1"/>
-      <c r="L1139" s="1"/>
+      <c r="A1139" s="1">
+        <v>1138.0</v>
+      </c>
+      <c r="B1139" s="2">
+        <v>45241.0</v>
+      </c>
+      <c r="C1139" s="3" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D1139" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1139" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1139" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1139" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1139" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1139" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1140">
-      <c r="B1140" s="2"/>
-      <c r="C1140" s="3"/>
-      <c r="D1140" s="1"/>
-      <c r="E1140" s="1"/>
-      <c r="F1140" s="1"/>
-      <c r="G1140" s="1"/>
-      <c r="H1140" s="1"/>
-      <c r="I1140" s="1"/>
-      <c r="J1140" s="1"/>
-      <c r="K1140" s="1"/>
-      <c r="L1140" s="1"/>
+      <c r="A1140" s="1">
+        <v>1139.0</v>
+      </c>
+      <c r="B1140" s="2">
+        <v>45245.0</v>
+      </c>
+      <c r="C1140" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D1140" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1140" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1140" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1141">
-      <c r="B1141" s="2"/>
-      <c r="C1141" s="3"/>
-      <c r="D1141" s="1"/>
-      <c r="E1141" s="1"/>
-      <c r="F1141" s="1"/>
-      <c r="G1141" s="1"/>
-      <c r="H1141" s="1"/>
-      <c r="I1141" s="1"/>
-      <c r="J1141" s="1"/>
-      <c r="K1141" s="1"/>
-      <c r="L1141" s="1"/>
+      <c r="A1141" s="1">
+        <v>1140.0</v>
+      </c>
+      <c r="B1141" s="2">
+        <v>45248.0</v>
+      </c>
+      <c r="C1141" s="3" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D1141" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1141" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1141" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1141" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1142">
-      <c r="B1142" s="2"/>
-      <c r="C1142" s="3"/>
-      <c r="D1142" s="1"/>
-      <c r="E1142" s="1"/>
-      <c r="F1142" s="1"/>
-      <c r="G1142" s="1"/>
-      <c r="H1142" s="1"/>
-      <c r="I1142" s="1"/>
-      <c r="J1142" s="1"/>
-      <c r="K1142" s="1"/>
-      <c r="L1142" s="1"/>
+      <c r="A1142" s="1">
+        <v>1141.0</v>
+      </c>
+      <c r="B1142" s="2">
+        <v>45249.0</v>
+      </c>
+      <c r="C1142" s="3" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D1142" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1142" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1142" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1142" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1142" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1143">
-      <c r="B1143" s="2"/>
-      <c r="C1143" s="3"/>
-      <c r="D1143" s="1"/>
-      <c r="E1143" s="1"/>
-      <c r="F1143" s="1"/>
-      <c r="G1143" s="1"/>
-      <c r="H1143" s="1"/>
-      <c r="I1143" s="1"/>
-      <c r="J1143" s="1"/>
-      <c r="K1143" s="1"/>
-      <c r="L1143" s="1"/>
+      <c r="A1143" s="1">
+        <v>1142.0</v>
+      </c>
+      <c r="B1143" s="2">
+        <v>45249.0</v>
+      </c>
+      <c r="C1143" s="3" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D1143" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1143" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1143" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1144">
-      <c r="B1144" s="2"/>
-      <c r="C1144" s="3"/>
-      <c r="D1144" s="1"/>
-      <c r="E1144" s="1"/>
-      <c r="F1144" s="1"/>
-      <c r="G1144" s="1"/>
-      <c r="H1144" s="1"/>
-      <c r="I1144" s="1"/>
-      <c r="J1144" s="1"/>
-      <c r="K1144" s="1"/>
-      <c r="L1144" s="1"/>
+      <c r="A1144" s="1">
+        <v>1143.0</v>
+      </c>
+      <c r="B1144" s="2">
+        <v>45252.0</v>
+      </c>
+      <c r="C1144" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D1144" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1144" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1144" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1144" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1145">
-      <c r="B1145" s="2"/>
-      <c r="C1145" s="3"/>
-      <c r="D1145" s="1"/>
-      <c r="E1145" s="1"/>
-      <c r="F1145" s="1"/>
-      <c r="G1145" s="1"/>
-      <c r="H1145" s="1"/>
-      <c r="I1145" s="1"/>
-      <c r="J1145" s="1"/>
-      <c r="K1145" s="1"/>
-      <c r="L1145" s="1"/>
+      <c r="A1145" s="1">
+        <v>1144.0</v>
+      </c>
+      <c r="B1145" s="2">
+        <v>45254.0</v>
+      </c>
+      <c r="C1145" s="3" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D1145" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1145" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1145" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1146">
-      <c r="B1146" s="2"/>
-      <c r="C1146" s="3"/>
-      <c r="D1146" s="1"/>
-      <c r="E1146" s="1"/>
-      <c r="F1146" s="1"/>
-      <c r="G1146" s="1"/>
-      <c r="H1146" s="1"/>
-      <c r="I1146" s="1"/>
-      <c r="J1146" s="1"/>
-      <c r="K1146" s="1"/>
-      <c r="L1146" s="1"/>
+      <c r="A1146" s="1">
+        <v>1145.0</v>
+      </c>
+      <c r="B1146" s="2">
+        <v>45256.0</v>
+      </c>
+      <c r="C1146" s="3" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D1146" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1146" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1146" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1146" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1147">
-      <c r="B1147" s="2"/>
-      <c r="C1147" s="3"/>
-      <c r="D1147" s="1"/>
-      <c r="E1147" s="1"/>
-      <c r="F1147" s="1"/>
-      <c r="G1147" s="1"/>
-      <c r="H1147" s="1"/>
-      <c r="I1147" s="1"/>
-      <c r="J1147" s="1"/>
-      <c r="K1147" s="1"/>
-      <c r="L1147" s="1"/>
+      <c r="A1147" s="1">
+        <v>1146.0</v>
+      </c>
+      <c r="B1147" s="2">
+        <v>45257.0</v>
+      </c>
+      <c r="C1147" s="3" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D1147" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1147" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1147" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1147" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1148">
-      <c r="B1148" s="2"/>
-      <c r="C1148" s="3"/>
-      <c r="D1148" s="1"/>
-      <c r="E1148" s="1"/>
-      <c r="F1148" s="1"/>
-      <c r="G1148" s="1"/>
-      <c r="H1148" s="1"/>
-      <c r="I1148" s="1"/>
-      <c r="J1148" s="1"/>
-      <c r="K1148" s="1"/>
-      <c r="L1148" s="1"/>
+      <c r="A1148" s="1">
+        <v>1147.0</v>
+      </c>
+      <c r="B1148" s="2">
+        <v>45259.0</v>
+      </c>
+      <c r="C1148" s="3" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D1148" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1148" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1148" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1149">
-      <c r="B1149" s="2"/>
-      <c r="C1149" s="3"/>
-      <c r="D1149" s="1"/>
-      <c r="E1149" s="1"/>
-      <c r="F1149" s="1"/>
-      <c r="G1149" s="1"/>
-      <c r="H1149" s="1"/>
-      <c r="I1149" s="1"/>
-      <c r="J1149" s="1"/>
-      <c r="K1149" s="1"/>
-      <c r="L1149" s="1"/>
+      <c r="A1149" s="1">
+        <v>1148.0</v>
+      </c>
+      <c r="B1149" s="2">
+        <v>45259.0</v>
+      </c>
+      <c r="C1149" s="3" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D1149" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1149" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1149" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1149" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1150">
-      <c r="B1150" s="2"/>
-      <c r="C1150" s="3"/>
-      <c r="D1150" s="1"/>
-      <c r="E1150" s="1"/>
-      <c r="F1150" s="1"/>
-      <c r="G1150" s="1"/>
-      <c r="H1150" s="1"/>
-      <c r="I1150" s="1"/>
-      <c r="J1150" s="1"/>
-      <c r="K1150" s="1"/>
-      <c r="L1150" s="1"/>
+      <c r="A1150" s="1">
+        <v>1149.0</v>
+      </c>
+      <c r="B1150" s="2">
+        <v>45264.0</v>
+      </c>
+      <c r="C1150" s="3" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D1150" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1150" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1150" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1150" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1150" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1150" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1151">
-      <c r="B1151" s="2"/>
-      <c r="C1151" s="3"/>
-      <c r="D1151" s="1"/>
-      <c r="E1151" s="1"/>
-      <c r="F1151" s="1"/>
-      <c r="G1151" s="1"/>
-      <c r="H1151" s="1"/>
-      <c r="I1151" s="1"/>
-      <c r="J1151" s="1"/>
-      <c r="K1151" s="1"/>
-      <c r="L1151" s="1"/>
+      <c r="A1151" s="1">
+        <v>1150.0</v>
+      </c>
+      <c r="B1151" s="2">
+        <v>45265.0</v>
+      </c>
+      <c r="C1151" s="3" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D1151" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1151" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1151" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1151" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1151" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1152">
-      <c r="B1152" s="2"/>
-      <c r="C1152" s="3"/>
-      <c r="D1152" s="1"/>
-      <c r="E1152" s="1"/>
-      <c r="F1152" s="1"/>
-      <c r="G1152" s="1"/>
-      <c r="H1152" s="1"/>
-      <c r="I1152" s="1"/>
-      <c r="J1152" s="1"/>
-      <c r="K1152" s="1"/>
-      <c r="L1152" s="1"/>
+      <c r="A1152" s="1">
+        <v>1151.0</v>
+      </c>
+      <c r="B1152" s="2">
+        <v>45268.0</v>
+      </c>
+      <c r="C1152" s="3" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D1152" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1152" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1152" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1152" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1153">
-      <c r="B1153" s="2"/>
-      <c r="C1153" s="3"/>
-      <c r="D1153" s="1"/>
-      <c r="E1153" s="1"/>
-      <c r="F1153" s="1"/>
-      <c r="G1153" s="1"/>
-      <c r="H1153" s="1"/>
-      <c r="I1153" s="1"/>
-      <c r="J1153" s="1"/>
-      <c r="K1153" s="1"/>
-      <c r="L1153" s="1"/>
+      <c r="A1153" s="1">
+        <v>1152.0</v>
+      </c>
+      <c r="B1153" s="2">
+        <v>45270.0</v>
+      </c>
+      <c r="C1153" s="3" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D1153" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1153" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1153" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1153" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1153" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1154">
-      <c r="B1154" s="2"/>
-      <c r="C1154" s="3"/>
-      <c r="D1154" s="1"/>
-      <c r="E1154" s="1"/>
-      <c r="F1154" s="1"/>
-      <c r="G1154" s="1"/>
-      <c r="H1154" s="1"/>
-      <c r="I1154" s="1"/>
-      <c r="J1154" s="1"/>
-      <c r="K1154" s="1"/>
-      <c r="L1154" s="1"/>
+      <c r="A1154" s="1">
+        <v>1153.0</v>
+      </c>
+      <c r="B1154" s="2">
+        <v>45271.0</v>
+      </c>
+      <c r="C1154" s="3" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D1154" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1154" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1154" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1154" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1155">
-      <c r="B1155" s="2"/>
-      <c r="C1155" s="3"/>
-      <c r="D1155" s="1"/>
-      <c r="E1155" s="1"/>
-      <c r="F1155" s="1"/>
-      <c r="G1155" s="1"/>
-      <c r="H1155" s="1"/>
-      <c r="I1155" s="1"/>
-      <c r="J1155" s="1"/>
-      <c r="K1155" s="1"/>
-      <c r="L1155" s="1"/>
+      <c r="A1155" s="1">
+        <v>1154.0</v>
+      </c>
+      <c r="B1155" s="2">
+        <v>45271.0</v>
+      </c>
+      <c r="C1155" s="3" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D1155" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1155" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1155" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1156">
-      <c r="B1156" s="2"/>
-      <c r="C1156" s="3"/>
-      <c r="D1156" s="1"/>
-      <c r="E1156" s="1"/>
-      <c r="F1156" s="1"/>
-      <c r="G1156" s="1"/>
-      <c r="H1156" s="1"/>
-      <c r="I1156" s="1"/>
-      <c r="J1156" s="1"/>
-      <c r="K1156" s="1"/>
-      <c r="L1156" s="1"/>
+      <c r="A1156" s="1">
+        <v>1155.0</v>
+      </c>
+      <c r="B1156" s="2">
+        <v>45274.0</v>
+      </c>
+      <c r="C1156" s="3" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D1156" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1156" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1156" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1156" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1157">
-      <c r="B1157" s="2"/>
-      <c r="C1157" s="3"/>
-      <c r="D1157" s="1"/>
-      <c r="E1157" s="1"/>
-      <c r="F1157" s="1"/>
-      <c r="G1157" s="1"/>
-      <c r="H1157" s="1"/>
-      <c r="I1157" s="1"/>
-      <c r="J1157" s="1"/>
-      <c r="K1157" s="1"/>
-      <c r="L1157" s="1"/>
+      <c r="A1157" s="1">
+        <v>1156.0</v>
+      </c>
+      <c r="B1157" s="2">
+        <v>45283.0</v>
+      </c>
+      <c r="C1157" s="3" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D1157" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1157" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1157" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1157" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1158">
-      <c r="B1158" s="2"/>
-      <c r="C1158" s="3"/>
-      <c r="D1158" s="1"/>
-      <c r="E1158" s="1"/>
-      <c r="F1158" s="1"/>
-      <c r="G1158" s="1"/>
-      <c r="H1158" s="1"/>
-      <c r="I1158" s="1"/>
-      <c r="J1158" s="1"/>
-      <c r="K1158" s="1"/>
-      <c r="L1158" s="1"/>
+      <c r="A1158" s="1">
+        <v>1157.0</v>
+      </c>
+      <c r="B1158" s="2">
+        <v>45288.0</v>
+      </c>
+      <c r="C1158" s="3" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D1158" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1158" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1158" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1158" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1159">
-      <c r="B1159" s="2"/>
-      <c r="C1159" s="3"/>
-      <c r="D1159" s="1"/>
-      <c r="E1159" s="1"/>
-      <c r="F1159" s="1"/>
-      <c r="G1159" s="1"/>
-      <c r="H1159" s="1"/>
-      <c r="I1159" s="1"/>
-      <c r="J1159" s="1"/>
-      <c r="K1159" s="1"/>
-      <c r="L1159" s="1"/>
+      <c r="A1159" s="1">
+        <v>1158.0</v>
+      </c>
+      <c r="B1159" s="2">
+        <v>45292.0</v>
+      </c>
+      <c r="C1159" s="3" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D1159" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1159" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1159" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1159" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1160">
-      <c r="B1160" s="2"/>
-      <c r="C1160" s="3"/>
-      <c r="D1160" s="1"/>
-      <c r="E1160" s="1"/>
-      <c r="F1160" s="1"/>
-      <c r="G1160" s="1"/>
-      <c r="H1160" s="1"/>
-      <c r="I1160" s="1"/>
-      <c r="J1160" s="1"/>
-      <c r="K1160" s="1"/>
-      <c r="L1160" s="1"/>
+      <c r="A1160" s="1">
+        <v>1159.0</v>
+      </c>
+      <c r="B1160" s="2">
+        <v>45293.0</v>
+      </c>
+      <c r="C1160" s="3" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D1160" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1160" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1160" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1160" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1160" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1161">
-      <c r="B1161" s="2"/>
-      <c r="C1161" s="3"/>
-      <c r="D1161" s="1"/>
-      <c r="E1161" s="1"/>
-      <c r="F1161" s="1"/>
-      <c r="G1161" s="1"/>
-      <c r="H1161" s="1"/>
-      <c r="I1161" s="1"/>
-      <c r="J1161" s="1"/>
-      <c r="K1161" s="1"/>
-      <c r="L1161" s="1"/>
+      <c r="A1161" s="1">
+        <v>1160.0</v>
+      </c>
+      <c r="B1161" s="2">
+        <v>45293.0</v>
+      </c>
+      <c r="C1161" s="3" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D1161" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1161" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1161" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1162">
-      <c r="B1162" s="2"/>
-      <c r="C1162" s="3"/>
-      <c r="D1162" s="1"/>
-      <c r="E1162" s="1"/>
-      <c r="F1162" s="1"/>
-      <c r="G1162" s="1"/>
-      <c r="H1162" s="1"/>
-      <c r="I1162" s="1"/>
-      <c r="J1162" s="1"/>
-      <c r="K1162" s="1"/>
-      <c r="L1162" s="1"/>
+      <c r="A1162" s="1">
+        <v>1161.0</v>
+      </c>
+      <c r="B1162" s="2">
+        <v>45293.0</v>
+      </c>
+      <c r="C1162" s="3" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D1162" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1162" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1162" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1163">
-      <c r="B1163" s="2"/>
-      <c r="C1163" s="3"/>
-      <c r="D1163" s="1"/>
-      <c r="E1163" s="1"/>
-      <c r="F1163" s="1"/>
-      <c r="G1163" s="1"/>
-      <c r="H1163" s="1"/>
-      <c r="I1163" s="1"/>
-      <c r="J1163" s="1"/>
-      <c r="K1163" s="1"/>
-      <c r="L1163" s="1"/>
+      <c r="A1163" s="1">
+        <v>1162.0</v>
+      </c>
+      <c r="B1163" s="2">
+        <v>45293.0</v>
+      </c>
+      <c r="C1163" s="3" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D1163" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1163" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1163" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1163" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1163" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1164">
-      <c r="B1164" s="2"/>
-      <c r="C1164" s="3"/>
-      <c r="D1164" s="1"/>
-      <c r="E1164" s="1"/>
-      <c r="F1164" s="1"/>
-      <c r="G1164" s="1"/>
-      <c r="H1164" s="1"/>
-      <c r="I1164" s="1"/>
-      <c r="J1164" s="1"/>
-      <c r="K1164" s="1"/>
-      <c r="L1164" s="1"/>
+      <c r="A1164" s="1">
+        <v>1163.0</v>
+      </c>
+      <c r="B1164" s="2">
+        <v>45294.0</v>
+      </c>
+      <c r="C1164" s="3" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D1164" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1164" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1164" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1164" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1165">
-      <c r="B1165" s="2"/>
-      <c r="C1165" s="3"/>
-      <c r="D1165" s="1"/>
-      <c r="E1165" s="1"/>
-      <c r="F1165" s="1"/>
-      <c r="G1165" s="1"/>
-      <c r="H1165" s="1"/>
-      <c r="I1165" s="1"/>
-      <c r="J1165" s="1"/>
-      <c r="K1165" s="1"/>
-      <c r="L1165" s="1"/>
+      <c r="A1165" s="1">
+        <v>1164.0</v>
+      </c>
+      <c r="B1165" s="2">
+        <v>45295.0</v>
+      </c>
+      <c r="C1165" s="3" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D1165" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1165" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1165" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1165" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1166">
-      <c r="B1166" s="2"/>
-      <c r="C1166" s="3"/>
-      <c r="D1166" s="1"/>
-      <c r="E1166" s="1"/>
-      <c r="F1166" s="1"/>
-      <c r="G1166" s="1"/>
-      <c r="H1166" s="1"/>
-      <c r="I1166" s="1"/>
-      <c r="J1166" s="1"/>
-      <c r="K1166" s="1"/>
-      <c r="L1166" s="1"/>
+      <c r="A1166" s="1">
+        <v>1165.0</v>
+      </c>
+      <c r="B1166" s="2">
+        <v>45295.0</v>
+      </c>
+      <c r="C1166" s="3" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D1166" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1166" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1166" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1167">
-      <c r="B1167" s="2"/>
-      <c r="C1167" s="3"/>
-      <c r="D1167" s="1"/>
-      <c r="E1167" s="1"/>
-      <c r="F1167" s="1"/>
-      <c r="G1167" s="1"/>
-      <c r="H1167" s="1"/>
-      <c r="I1167" s="1"/>
-      <c r="J1167" s="1"/>
-      <c r="K1167" s="1"/>
-      <c r="L1167" s="1"/>
+      <c r="A1167" s="1">
+        <v>1166.0</v>
+      </c>
+      <c r="B1167" s="2">
+        <v>45299.0</v>
+      </c>
+      <c r="C1167" s="3" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D1167" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1167" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1167" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1167" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1167" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1168">
-      <c r="B1168" s="2"/>
-      <c r="C1168" s="3"/>
-      <c r="D1168" s="1"/>
-      <c r="E1168" s="1"/>
-      <c r="F1168" s="1"/>
-      <c r="G1168" s="1"/>
-      <c r="H1168" s="1"/>
-      <c r="I1168" s="1"/>
-      <c r="J1168" s="1"/>
-      <c r="K1168" s="1"/>
-      <c r="L1168" s="1"/>
+      <c r="A1168" s="1">
+        <v>1167.0</v>
+      </c>
+      <c r="B1168" s="2">
+        <v>45301.0</v>
+      </c>
+      <c r="C1168" s="3" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D1168" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1168" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1168" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1168" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1169">
-      <c r="B1169" s="2"/>
-      <c r="C1169" s="3"/>
-      <c r="D1169" s="1"/>
-      <c r="E1169" s="1"/>
-      <c r="F1169" s="1"/>
-      <c r="G1169" s="1"/>
-      <c r="H1169" s="1"/>
-      <c r="I1169" s="1"/>
-      <c r="J1169" s="1"/>
-      <c r="K1169" s="1"/>
-      <c r="L1169" s="1"/>
+      <c r="A1169" s="1">
+        <v>1168.0</v>
+      </c>
+      <c r="B1169" s="2">
+        <v>45302.0</v>
+      </c>
+      <c r="C1169" s="3" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D1169" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1169" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1169" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1169" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1169" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1170">
-      <c r="B1170" s="2"/>
-      <c r="C1170" s="3"/>
-      <c r="D1170" s="1"/>
-      <c r="E1170" s="1"/>
-      <c r="F1170" s="1"/>
-      <c r="G1170" s="1"/>
-      <c r="H1170" s="1"/>
-      <c r="I1170" s="1"/>
-      <c r="J1170" s="1"/>
-      <c r="K1170" s="1"/>
-      <c r="L1170" s="1"/>
+      <c r="A1170" s="1">
+        <v>1169.0</v>
+      </c>
+      <c r="B1170" s="2">
+        <v>45310.0</v>
+      </c>
+      <c r="C1170" s="3" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1170" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1170" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1170" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1171">
-      <c r="B1171" s="2"/>
-      <c r="C1171" s="3"/>
-      <c r="D1171" s="1"/>
-      <c r="E1171" s="1"/>
-      <c r="F1171" s="1"/>
-      <c r="G1171" s="1"/>
-      <c r="H1171" s="1"/>
-      <c r="I1171" s="1"/>
-      <c r="J1171" s="1"/>
-      <c r="K1171" s="1"/>
-      <c r="L1171" s="1"/>
+      <c r="A1171" s="1">
+        <v>1170.0</v>
+      </c>
+      <c r="B1171" s="2">
+        <v>45311.0</v>
+      </c>
+      <c r="C1171" s="3" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D1171" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1171" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1171" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1172">
-      <c r="B1172" s="2"/>
-      <c r="C1172" s="3"/>
-      <c r="D1172" s="1"/>
-      <c r="E1172" s="1"/>
-      <c r="F1172" s="1"/>
-      <c r="G1172" s="1"/>
-      <c r="H1172" s="1"/>
-      <c r="I1172" s="1"/>
-      <c r="J1172" s="1"/>
-      <c r="K1172" s="1"/>
-      <c r="L1172" s="1"/>
+      <c r="A1172" s="1">
+        <v>1171.0</v>
+      </c>
+      <c r="B1172" s="2">
+        <v>45312.0</v>
+      </c>
+      <c r="C1172" s="3" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D1172" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1172" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1172" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1173">
-      <c r="B1173" s="2"/>
-      <c r="C1173" s="3"/>
-      <c r="D1173" s="1"/>
-      <c r="E1173" s="1"/>
-      <c r="F1173" s="1"/>
-      <c r="G1173" s="1"/>
-      <c r="H1173" s="1"/>
-      <c r="I1173" s="1"/>
-      <c r="J1173" s="1"/>
-      <c r="K1173" s="1"/>
-      <c r="L1173" s="1"/>
+      <c r="A1173" s="1">
+        <v>1172.0</v>
+      </c>
+      <c r="B1173" s="2">
+        <v>45312.0</v>
+      </c>
+      <c r="C1173" s="3" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1173" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1173" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1173" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1173" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1174">
-      <c r="B1174" s="2"/>
-      <c r="C1174" s="3"/>
-      <c r="D1174" s="1"/>
-      <c r="E1174" s="1"/>
-      <c r="F1174" s="1"/>
-      <c r="G1174" s="1"/>
-      <c r="H1174" s="1"/>
-      <c r="I1174" s="1"/>
-      <c r="J1174" s="1"/>
-      <c r="K1174" s="1"/>
-      <c r="L1174" s="1"/>
+      <c r="A1174" s="1">
+        <v>1173.0</v>
+      </c>
+      <c r="B1174" s="2">
+        <v>45312.0</v>
+      </c>
+      <c r="C1174" s="3" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D1174" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1174" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1174" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1174" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1174" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1175">
-      <c r="B1175" s="2"/>
-      <c r="C1175" s="3"/>
-      <c r="D1175" s="1"/>
-      <c r="E1175" s="1"/>
-      <c r="F1175" s="1"/>
-      <c r="G1175" s="1"/>
-      <c r="H1175" s="1"/>
-      <c r="I1175" s="1"/>
-      <c r="J1175" s="1"/>
-      <c r="K1175" s="1"/>
-      <c r="L1175" s="1"/>
+      <c r="A1175" s="1">
+        <v>1174.0</v>
+      </c>
+      <c r="B1175" s="2">
+        <v>45317.0</v>
+      </c>
+      <c r="C1175" s="3" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D1175" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1175" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1175" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1176">
-      <c r="B1176" s="2"/>
-      <c r="C1176" s="3"/>
-      <c r="D1176" s="1"/>
-      <c r="E1176" s="1"/>
-      <c r="F1176" s="1"/>
-      <c r="G1176" s="1"/>
-      <c r="H1176" s="1"/>
-      <c r="I1176" s="1"/>
-      <c r="J1176" s="1"/>
-      <c r="K1176" s="1"/>
-      <c r="L1176" s="1"/>
+      <c r="A1176" s="1">
+        <v>1175.0</v>
+      </c>
+      <c r="B1176" s="2">
+        <v>45317.0</v>
+      </c>
+      <c r="C1176" s="3" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D1176" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1176" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1176" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1176" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1176" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1176" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1177">
-      <c r="B1177" s="2"/>
-      <c r="C1177" s="3"/>
-      <c r="D1177" s="1"/>
-      <c r="E1177" s="1"/>
-      <c r="F1177" s="1"/>
-      <c r="G1177" s="1"/>
-      <c r="H1177" s="1"/>
-      <c r="I1177" s="1"/>
-      <c r="J1177" s="1"/>
-      <c r="K1177" s="1"/>
-      <c r="L1177" s="1"/>
+      <c r="A1177" s="1">
+        <v>1176.0</v>
+      </c>
+      <c r="B1177" s="2">
+        <v>45317.0</v>
+      </c>
+      <c r="C1177" s="3" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D1177" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1177" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1177" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1177" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1178">
-      <c r="B1178" s="2"/>
-      <c r="C1178" s="3"/>
-      <c r="D1178" s="1"/>
-      <c r="E1178" s="1"/>
-      <c r="F1178" s="1"/>
-      <c r="G1178" s="1"/>
-      <c r="H1178" s="1"/>
-      <c r="I1178" s="1"/>
-      <c r="J1178" s="1"/>
-      <c r="K1178" s="1"/>
-      <c r="L1178" s="1"/>
+      <c r="A1178" s="1">
+        <v>1177.0</v>
+      </c>
+      <c r="B1178" s="2">
+        <v>45318.0</v>
+      </c>
+      <c r="C1178" s="3" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1178" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1178" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1178" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1178" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1178" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1178" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1179">
-      <c r="B1179" s="2"/>
-      <c r="C1179" s="3"/>
-      <c r="D1179" s="1"/>
-      <c r="E1179" s="1"/>
-      <c r="F1179" s="1"/>
-      <c r="G1179" s="1"/>
-      <c r="H1179" s="1"/>
-      <c r="I1179" s="1"/>
-      <c r="J1179" s="1"/>
-      <c r="K1179" s="1"/>
-      <c r="L1179" s="1"/>
+      <c r="A1179" s="1">
+        <v>1178.0</v>
+      </c>
+      <c r="B1179" s="2">
+        <v>45319.0</v>
+      </c>
+      <c r="C1179" s="3" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D1179" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1179" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1179" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1179" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1179" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1179" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1179" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1180">
-      <c r="B1180" s="2"/>
-      <c r="C1180" s="3"/>
-      <c r="D1180" s="1"/>
-      <c r="E1180" s="1"/>
-      <c r="F1180" s="1"/>
-      <c r="G1180" s="1"/>
-      <c r="H1180" s="1"/>
-      <c r="I1180" s="1"/>
-      <c r="J1180" s="1"/>
-      <c r="K1180" s="1"/>
-      <c r="L1180" s="1"/>
+      <c r="A1180" s="1">
+        <v>1179.0</v>
+      </c>
+      <c r="B1180" s="2">
+        <v>45320.0</v>
+      </c>
+      <c r="C1180" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1180" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1180" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1180" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1180" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1180" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1180" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1180" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1181">
-      <c r="B1181" s="2"/>
-      <c r="C1181" s="3"/>
-      <c r="D1181" s="1"/>
-      <c r="E1181" s="1"/>
-      <c r="F1181" s="1"/>
-      <c r="G1181" s="1"/>
-      <c r="H1181" s="1"/>
-      <c r="I1181" s="1"/>
-      <c r="J1181" s="1"/>
-      <c r="K1181" s="1"/>
-      <c r="L1181" s="1"/>
+      <c r="A1181" s="1">
+        <v>1180.0</v>
+      </c>
+      <c r="B1181" s="2">
+        <v>45326.0</v>
+      </c>
+      <c r="C1181" s="3" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D1181" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1181" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1181" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1181" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1181" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1181" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1181" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1182">
-      <c r="B1182" s="2"/>
-      <c r="C1182" s="3"/>
-      <c r="D1182" s="1"/>
-      <c r="E1182" s="1"/>
-      <c r="F1182" s="1"/>
-      <c r="G1182" s="1"/>
-      <c r="H1182" s="1"/>
-      <c r="I1182" s="1"/>
-      <c r="J1182" s="1"/>
-      <c r="K1182" s="1"/>
-      <c r="L1182" s="1"/>
+      <c r="A1182" s="1">
+        <v>1181.0</v>
+      </c>
+      <c r="B1182" s="2">
+        <v>45326.0</v>
+      </c>
+      <c r="C1182" s="3" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D1182" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1182" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1182" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1182" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1182" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1182" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1182" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1183">
-      <c r="B1183" s="2"/>
-      <c r="C1183" s="3"/>
-      <c r="D1183" s="1"/>
-      <c r="E1183" s="1"/>
-      <c r="F1183" s="1"/>
-      <c r="G1183" s="1"/>
-      <c r="H1183" s="1"/>
-      <c r="I1183" s="1"/>
-      <c r="J1183" s="1"/>
-      <c r="K1183" s="1"/>
-      <c r="L1183" s="1"/>
+      <c r="A1183" s="1">
+        <v>1182.0</v>
+      </c>
+      <c r="B1183" s="2">
+        <v>45326.0</v>
+      </c>
+      <c r="C1183" s="3" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1183" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1183" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1183" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1183" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1184">
-      <c r="B1184" s="2"/>
-      <c r="C1184" s="3"/>
-      <c r="D1184" s="1"/>
-      <c r="E1184" s="1"/>
-      <c r="F1184" s="1"/>
-      <c r="G1184" s="1"/>
-      <c r="H1184" s="1"/>
-      <c r="I1184" s="1"/>
-      <c r="J1184" s="1"/>
-      <c r="K1184" s="1"/>
-      <c r="L1184" s="1"/>
+      <c r="A1184" s="1">
+        <v>1183.0</v>
+      </c>
+      <c r="B1184" s="2">
+        <v>45326.0</v>
+      </c>
+      <c r="C1184" s="3" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D1184" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1184" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1184" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1184" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1184" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1185">
-      <c r="B1185" s="2"/>
-      <c r="C1185" s="3"/>
-      <c r="D1185" s="1"/>
-      <c r="E1185" s="1"/>
-      <c r="F1185" s="1"/>
-      <c r="G1185" s="1"/>
-      <c r="H1185" s="1"/>
-      <c r="I1185" s="1"/>
-      <c r="J1185" s="1"/>
-      <c r="K1185" s="1"/>
-      <c r="L1185" s="1"/>
+      <c r="A1185" s="1">
+        <v>1184.0</v>
+      </c>
+      <c r="B1185" s="2">
+        <v>45330.0</v>
+      </c>
+      <c r="C1185" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D1185" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1185" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1185" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1185" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1185" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1186">
-      <c r="B1186" s="2"/>
-      <c r="C1186" s="3"/>
-      <c r="D1186" s="1"/>
-      <c r="E1186" s="1"/>
-      <c r="F1186" s="1"/>
-      <c r="G1186" s="1"/>
-      <c r="H1186" s="1"/>
-      <c r="I1186" s="1"/>
-      <c r="J1186" s="1"/>
-      <c r="K1186" s="1"/>
-      <c r="L1186" s="1"/>
+      <c r="A1186" s="1">
+        <v>1185.0</v>
+      </c>
+      <c r="B1186" s="2">
+        <v>45331.0</v>
+      </c>
+      <c r="C1186" s="3" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1186" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1186" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1186" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1186" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1187">
-      <c r="B1187" s="2"/>
-      <c r="C1187" s="3"/>
-      <c r="D1187" s="1"/>
-      <c r="E1187" s="1"/>
-      <c r="F1187" s="1"/>
-      <c r="G1187" s="1"/>
-      <c r="H1187" s="1"/>
-      <c r="I1187" s="1"/>
-      <c r="J1187" s="1"/>
-      <c r="K1187" s="1"/>
-      <c r="L1187" s="1"/>
+      <c r="A1187" s="1">
+        <v>1186.0</v>
+      </c>
+      <c r="B1187" s="2">
+        <v>45332.0</v>
+      </c>
+      <c r="C1187" s="3" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D1187" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1187" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1187" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1187" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1187" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1188">
-      <c r="B1188" s="2"/>
-      <c r="C1188" s="3"/>
-      <c r="D1188" s="1"/>
-      <c r="E1188" s="1"/>
-      <c r="F1188" s="1"/>
-      <c r="G1188" s="1"/>
-      <c r="H1188" s="1"/>
-      <c r="I1188" s="1"/>
-      <c r="J1188" s="1"/>
-      <c r="K1188" s="1"/>
-      <c r="L1188" s="1"/>
+      <c r="A1188" s="1">
+        <v>1187.0</v>
+      </c>
+      <c r="B1188" s="2">
+        <v>45330.0</v>
+      </c>
+      <c r="C1188" s="3" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D1188" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1188" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1188" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1188" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1188" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1188" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1189">
-      <c r="B1189" s="2"/>
-      <c r="C1189" s="3"/>
-      <c r="D1189" s="1"/>
-      <c r="E1189" s="1"/>
-      <c r="F1189" s="1"/>
-      <c r="G1189" s="1"/>
-      <c r="H1189" s="1"/>
-      <c r="I1189" s="1"/>
-      <c r="J1189" s="1"/>
-      <c r="K1189" s="1"/>
-      <c r="L1189" s="1"/>
+      <c r="A1189" s="1">
+        <v>1188.0</v>
+      </c>
+      <c r="B1189" s="2">
+        <v>45334.0</v>
+      </c>
+      <c r="C1189" s="3" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D1189" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1189" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1189" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1189" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1190">
-      <c r="B1190" s="2"/>
-      <c r="C1190" s="3"/>
-      <c r="D1190" s="1"/>
-      <c r="E1190" s="1"/>
-      <c r="F1190" s="1"/>
-      <c r="G1190" s="1"/>
-      <c r="H1190" s="1"/>
-      <c r="I1190" s="1"/>
-      <c r="J1190" s="1"/>
-      <c r="K1190" s="1"/>
-      <c r="L1190" s="1"/>
+      <c r="A1190" s="1">
+        <v>1189.0</v>
+      </c>
+      <c r="B1190" s="2">
+        <v>45337.0</v>
+      </c>
+      <c r="C1190" s="3" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D1190" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1190" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1190" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1190" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1190" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1190" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1191">
-      <c r="B1191" s="2"/>
-      <c r="C1191" s="3"/>
-      <c r="D1191" s="1"/>
-      <c r="E1191" s="1"/>
-      <c r="F1191" s="1"/>
-      <c r="G1191" s="1"/>
-      <c r="H1191" s="1"/>
-      <c r="I1191" s="1"/>
-      <c r="J1191" s="1"/>
-      <c r="K1191" s="1"/>
-      <c r="L1191" s="1"/>
+      <c r="A1191" s="1">
+        <v>1190.0</v>
+      </c>
+      <c r="B1191" s="2">
+        <v>45343.0</v>
+      </c>
+      <c r="C1191" s="3" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D1191" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1191" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1191" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1191" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1191" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1192">
-      <c r="B1192" s="2"/>
-      <c r="C1192" s="3"/>
-      <c r="D1192" s="1"/>
-      <c r="E1192" s="1"/>
-      <c r="F1192" s="1"/>
-      <c r="G1192" s="1"/>
-      <c r="H1192" s="1"/>
-      <c r="I1192" s="1"/>
-      <c r="J1192" s="1"/>
-      <c r="K1192" s="1"/>
-      <c r="L1192" s="1"/>
+      <c r="A1192" s="1">
+        <v>1191.0</v>
+      </c>
+      <c r="B1192" s="2">
+        <v>45343.0</v>
+      </c>
+      <c r="C1192" s="3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D1192" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1192" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1192" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1192" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1193">
-      <c r="B1193" s="2"/>
-      <c r="C1193" s="3"/>
-      <c r="D1193" s="1"/>
-      <c r="E1193" s="1"/>
-      <c r="F1193" s="1"/>
-      <c r="G1193" s="1"/>
-      <c r="H1193" s="1"/>
-      <c r="I1193" s="1"/>
-      <c r="J1193" s="1"/>
-      <c r="K1193" s="1"/>
-      <c r="L1193" s="1"/>
+      <c r="A1193" s="1">
+        <v>1192.0</v>
+      </c>
+      <c r="B1193" s="2">
+        <v>45346.0</v>
+      </c>
+      <c r="C1193" s="3" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D1193" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1193" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1193" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1193" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1194">
-      <c r="B1194" s="2"/>
-      <c r="C1194" s="3"/>
-      <c r="D1194" s="1"/>
-      <c r="E1194" s="1"/>
-      <c r="F1194" s="1"/>
-      <c r="G1194" s="1"/>
-      <c r="H1194" s="1"/>
-      <c r="I1194" s="1"/>
-      <c r="J1194" s="1"/>
-      <c r="K1194" s="1"/>
-      <c r="L1194" s="1"/>
+      <c r="A1194" s="1">
+        <v>1193.0</v>
+      </c>
+      <c r="B1194" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="C1194" s="3" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D1194" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1194" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1194" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1194" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1194" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1195">
-      <c r="B1195" s="2"/>
-      <c r="C1195" s="3"/>
-      <c r="D1195" s="1"/>
-      <c r="E1195" s="1"/>
-      <c r="F1195" s="1"/>
-      <c r="G1195" s="1"/>
-      <c r="H1195" s="1"/>
-      <c r="I1195" s="1"/>
-      <c r="J1195" s="1"/>
-      <c r="K1195" s="1"/>
-      <c r="L1195" s="1"/>
+      <c r="A1195" s="1">
+        <v>1194.0</v>
+      </c>
+      <c r="B1195" s="2">
+        <v>45353.0</v>
+      </c>
+      <c r="C1195" s="3" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D1195" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1195" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1195" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1195" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1195" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1195" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1196">
-      <c r="B1196" s="2"/>
-      <c r="C1196" s="3"/>
-      <c r="D1196" s="1"/>
-      <c r="E1196" s="1"/>
-      <c r="F1196" s="1"/>
-      <c r="G1196" s="1"/>
-      <c r="H1196" s="1"/>
-      <c r="I1196" s="1"/>
-      <c r="J1196" s="1"/>
-      <c r="K1196" s="1"/>
-      <c r="L1196" s="1"/>
+      <c r="A1196" s="1">
+        <v>1195.0</v>
+      </c>
+      <c r="B1196" s="2">
+        <v>45354.0</v>
+      </c>
+      <c r="C1196" s="3" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D1196" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1196" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1196" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1196" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1196" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1197">
-      <c r="B1197" s="2"/>
-      <c r="C1197" s="3"/>
-      <c r="D1197" s="1"/>
-      <c r="E1197" s="1"/>
-      <c r="F1197" s="1"/>
-      <c r="G1197" s="1"/>
-      <c r="H1197" s="1"/>
-      <c r="I1197" s="1"/>
-      <c r="J1197" s="1"/>
-      <c r="K1197" s="1"/>
-      <c r="L1197" s="1"/>
+      <c r="A1197" s="1">
+        <v>1196.0</v>
+      </c>
+      <c r="B1197" s="2">
+        <v>45354.0</v>
+      </c>
+      <c r="C1197" s="3" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D1197" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1197" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1197" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1197" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1197" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1198">
-      <c r="B1198" s="2"/>
-      <c r="C1198" s="3"/>
-      <c r="D1198" s="1"/>
-      <c r="E1198" s="1"/>
-      <c r="F1198" s="1"/>
-      <c r="G1198" s="1"/>
-      <c r="H1198" s="1"/>
-      <c r="I1198" s="1"/>
-      <c r="J1198" s="1"/>
-      <c r="K1198" s="1"/>
-      <c r="L1198" s="1"/>
+      <c r="A1198" s="1">
+        <v>1197.0</v>
+      </c>
+      <c r="B1198" s="2">
+        <v>45355.0</v>
+      </c>
+      <c r="C1198" s="3" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D1198" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1198" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1198" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1198" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1198" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1199">
-      <c r="B1199" s="2"/>
-      <c r="C1199" s="3"/>
-      <c r="D1199" s="1"/>
-      <c r="E1199" s="1"/>
-      <c r="F1199" s="1"/>
-      <c r="G1199" s="1"/>
-      <c r="H1199" s="1"/>
-      <c r="I1199" s="1"/>
-      <c r="J1199" s="1"/>
-      <c r="K1199" s="1"/>
-      <c r="L1199" s="1"/>
+      <c r="A1199" s="1">
+        <v>1198.0</v>
+      </c>
+      <c r="B1199" s="2">
+        <v>45356.0</v>
+      </c>
+      <c r="C1199" s="3" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D1199" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1199" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1199" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1199" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1199" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1199" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1200">
-      <c r="B1200" s="2"/>
-      <c r="C1200" s="3"/>
-      <c r="D1200" s="1"/>
-      <c r="E1200" s="1"/>
-      <c r="F1200" s="1"/>
-      <c r="G1200" s="1"/>
-      <c r="H1200" s="1"/>
-      <c r="I1200" s="1"/>
-      <c r="J1200" s="1"/>
-      <c r="K1200" s="1"/>
-      <c r="L1200" s="1"/>
+      <c r="A1200" s="1">
+        <v>1199.0</v>
+      </c>
+      <c r="B1200" s="2">
+        <v>45356.0</v>
+      </c>
+      <c r="C1200" s="3" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D1200" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1200" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1200" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1200" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1201">
-      <c r="B1201" s="2"/>
-      <c r="C1201" s="3"/>
-      <c r="D1201" s="1"/>
-      <c r="E1201" s="1"/>
-      <c r="F1201" s="1"/>
-      <c r="G1201" s="1"/>
-      <c r="H1201" s="1"/>
-      <c r="I1201" s="1"/>
-      <c r="J1201" s="1"/>
-      <c r="K1201" s="1"/>
-      <c r="L1201" s="1"/>
+      <c r="A1201" s="1">
+        <v>1200.0</v>
+      </c>
+      <c r="B1201" s="2">
+        <v>45357.0</v>
+      </c>
+      <c r="C1201" s="3" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D1201" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1201" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1201" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1201" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1201" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1201" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1201" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1202">
-      <c r="B1202" s="2"/>
-      <c r="C1202" s="3"/>
-      <c r="D1202" s="1"/>
-      <c r="E1202" s="1"/>
-      <c r="F1202" s="1"/>
-      <c r="G1202" s="1"/>
-      <c r="H1202" s="1"/>
-      <c r="I1202" s="1"/>
-      <c r="J1202" s="1"/>
-      <c r="K1202" s="1"/>
-      <c r="L1202" s="1"/>
+      <c r="A1202" s="1">
+        <v>1201.0</v>
+      </c>
+      <c r="B1202" s="2">
+        <v>45357.0</v>
+      </c>
+      <c r="C1202" s="3" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1202" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1202" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1202" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1202" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1202" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1203">
-      <c r="B1203" s="2"/>
-      <c r="C1203" s="3"/>
-      <c r="D1203" s="1"/>
-      <c r="E1203" s="1"/>
-      <c r="F1203" s="1"/>
-      <c r="G1203" s="1"/>
-      <c r="H1203" s="1"/>
-      <c r="I1203" s="1"/>
-      <c r="J1203" s="1"/>
-      <c r="K1203" s="1"/>
-      <c r="L1203" s="1"/>
+      <c r="A1203" s="1">
+        <v>1202.0</v>
+      </c>
+      <c r="B1203" s="2">
+        <v>45358.0</v>
+      </c>
+      <c r="C1203" s="3" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D1203" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1203" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1203" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1203" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1203" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1203" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1204">
-      <c r="B1204" s="2"/>
-      <c r="C1204" s="3"/>
-      <c r="D1204" s="1"/>
-      <c r="E1204" s="1"/>
-      <c r="F1204" s="1"/>
-      <c r="G1204" s="1"/>
-      <c r="H1204" s="1"/>
-      <c r="I1204" s="1"/>
-      <c r="J1204" s="1"/>
-      <c r="K1204" s="1"/>
-      <c r="L1204" s="1"/>
+      <c r="A1204" s="1">
+        <v>1203.0</v>
+      </c>
+      <c r="B1204" s="2">
+        <v>45360.0</v>
+      </c>
+      <c r="C1204" s="3" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D1204" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1204" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1204" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1204" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1204" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1204" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1204" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1205">
-      <c r="B1205" s="2"/>
-      <c r="C1205" s="3"/>
-      <c r="D1205" s="1"/>
-      <c r="E1205" s="1"/>
-      <c r="F1205" s="1"/>
-      <c r="G1205" s="1"/>
-      <c r="H1205" s="1"/>
-      <c r="I1205" s="1"/>
-      <c r="J1205" s="1"/>
-      <c r="K1205" s="1"/>
-      <c r="L1205" s="1"/>
+      <c r="A1205" s="1">
+        <v>1204.0</v>
+      </c>
+      <c r="B1205" s="2">
+        <v>45362.0</v>
+      </c>
+      <c r="C1205" s="3" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D1205" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1205" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1205" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1205" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1205" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1206">
-      <c r="B1206" s="2"/>
-      <c r="C1206" s="3"/>
-      <c r="D1206" s="1"/>
-      <c r="E1206" s="1"/>
-      <c r="F1206" s="1"/>
-      <c r="G1206" s="1"/>
-      <c r="H1206" s="1"/>
-      <c r="I1206" s="1"/>
-      <c r="J1206" s="1"/>
-      <c r="K1206" s="1"/>
-      <c r="L1206" s="1"/>
+      <c r="A1206" s="1">
+        <v>1205.0</v>
+      </c>
+      <c r="B1206" s="2">
+        <v>45362.0</v>
+      </c>
+      <c r="C1206" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D1206" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1206" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1206" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1206" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1206" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1206" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1207">
-      <c r="B1207" s="2"/>
-      <c r="C1207" s="3"/>
-      <c r="D1207" s="1"/>
-      <c r="E1207" s="1"/>
-      <c r="F1207" s="1"/>
-      <c r="G1207" s="1"/>
-      <c r="H1207" s="1"/>
-      <c r="I1207" s="1"/>
-      <c r="J1207" s="1"/>
-      <c r="K1207" s="1"/>
-      <c r="L1207" s="1"/>
+      <c r="A1207" s="1">
+        <v>1206.0</v>
+      </c>
+      <c r="B1207" s="2">
+        <v>45362.0</v>
+      </c>
+      <c r="C1207" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D1207" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1207" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1207" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1207" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1207" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1207" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1208">
-      <c r="B1208" s="2"/>
-      <c r="C1208" s="3"/>
-      <c r="D1208" s="1"/>
-      <c r="E1208" s="1"/>
-      <c r="F1208" s="1"/>
-      <c r="G1208" s="1"/>
-      <c r="H1208" s="1"/>
-      <c r="I1208" s="1"/>
-      <c r="J1208" s="1"/>
-      <c r="K1208" s="1"/>
-      <c r="L1208" s="1"/>
+      <c r="A1208" s="1">
+        <v>1207.0</v>
+      </c>
+      <c r="B1208" s="2">
+        <v>45363.0</v>
+      </c>
+      <c r="C1208" s="3" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D1208" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1208" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1208" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1208" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1208" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1209">
-      <c r="B1209" s="2"/>
-      <c r="C1209" s="3"/>
-      <c r="D1209" s="1"/>
-      <c r="E1209" s="1"/>
-      <c r="F1209" s="1"/>
-      <c r="G1209" s="1"/>
-      <c r="H1209" s="1"/>
-      <c r="I1209" s="1"/>
-      <c r="J1209" s="1"/>
-      <c r="K1209" s="1"/>
-      <c r="L1209" s="1"/>
+      <c r="A1209" s="1">
+        <v>1208.0</v>
+      </c>
+      <c r="B1209" s="2">
+        <v>45363.0</v>
+      </c>
+      <c r="C1209" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D1209" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1209" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1209" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1209" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1209" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1210">
-      <c r="B1210" s="2"/>
-      <c r="C1210" s="3"/>
-      <c r="D1210" s="1"/>
-      <c r="E1210" s="1"/>
-      <c r="F1210" s="1"/>
-      <c r="G1210" s="1"/>
-      <c r="H1210" s="1"/>
-      <c r="I1210" s="1"/>
-      <c r="J1210" s="1"/>
-      <c r="K1210" s="1"/>
-      <c r="L1210" s="1"/>
+      <c r="A1210" s="1">
+        <v>1209.0</v>
+      </c>
+      <c r="B1210" s="2">
+        <v>45365.0</v>
+      </c>
+      <c r="C1210" s="3" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D1210" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1210" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1210" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1210" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1210" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1211">
-      <c r="B1211" s="2"/>
-      <c r="C1211" s="3"/>
-      <c r="D1211" s="1"/>
-      <c r="E1211" s="1"/>
-      <c r="F1211" s="1"/>
-      <c r="G1211" s="1"/>
-      <c r="H1211" s="1"/>
-      <c r="I1211" s="1"/>
-      <c r="J1211" s="1"/>
-      <c r="K1211" s="1"/>
-      <c r="L1211" s="1"/>
+      <c r="A1211" s="1">
+        <v>1210.0</v>
+      </c>
+      <c r="B1211" s="2">
+        <v>45367.0</v>
+      </c>
+      <c r="C1211" s="3" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D1211" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1211" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1211" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1211" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1211" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1212">
-      <c r="B1212" s="2"/>
-      <c r="C1212" s="3"/>
-      <c r="D1212" s="1"/>
-      <c r="E1212" s="1"/>
-      <c r="F1212" s="1"/>
-      <c r="G1212" s="1"/>
-      <c r="H1212" s="1"/>
-      <c r="I1212" s="1"/>
-      <c r="J1212" s="1"/>
-      <c r="K1212" s="1"/>
-      <c r="L1212" s="1"/>
+      <c r="A1212" s="1">
+        <v>1211.0</v>
+      </c>
+      <c r="B1212" s="2">
+        <v>45369.0</v>
+      </c>
+      <c r="C1212" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D1212" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1212" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1212" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1212" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1212" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1213">
-      <c r="B1213" s="2"/>
-      <c r="C1213" s="3"/>
-      <c r="D1213" s="1"/>
-      <c r="E1213" s="1"/>
-      <c r="F1213" s="1"/>
-      <c r="G1213" s="1"/>
-      <c r="H1213" s="1"/>
-      <c r="I1213" s="1"/>
-      <c r="J1213" s="1"/>
-      <c r="K1213" s="1"/>
-      <c r="L1213" s="1"/>
+      <c r="A1213" s="1">
+        <v>1212.0</v>
+      </c>
+      <c r="B1213" s="2">
+        <v>45369.0</v>
+      </c>
+      <c r="C1213" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D1213" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1213" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1213" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1213" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1213" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1213" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1214">
-      <c r="B1214" s="2"/>
-      <c r="C1214" s="3"/>
-      <c r="D1214" s="1"/>
-      <c r="E1214" s="1"/>
-      <c r="F1214" s="1"/>
-      <c r="G1214" s="1"/>
-      <c r="H1214" s="1"/>
-      <c r="I1214" s="1"/>
-      <c r="J1214" s="1"/>
-      <c r="K1214" s="1"/>
-      <c r="L1214" s="1"/>
+      <c r="A1214" s="1">
+        <v>1213.0</v>
+      </c>
+      <c r="B1214" s="2">
+        <v>45370.0</v>
+      </c>
+      <c r="C1214" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D1214" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1214" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1214" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1214" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1214" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1215">
-      <c r="B1215" s="2"/>
-      <c r="C1215" s="3"/>
-      <c r="D1215" s="1"/>
-      <c r="E1215" s="1"/>
-      <c r="F1215" s="1"/>
-      <c r="G1215" s="1"/>
-      <c r="H1215" s="1"/>
-      <c r="I1215" s="1"/>
-      <c r="J1215" s="1"/>
-      <c r="K1215" s="1"/>
-      <c r="L1215" s="1"/>
+      <c r="A1215" s="1">
+        <v>1214.0</v>
+      </c>
+      <c r="B1215" s="2">
+        <v>45372.0</v>
+      </c>
+      <c r="C1215" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D1215" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1215" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1215" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1215" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1215" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1216">
-      <c r="B1216" s="2"/>
-      <c r="C1216" s="3"/>
-      <c r="D1216" s="1"/>
-      <c r="E1216" s="1"/>
-      <c r="F1216" s="1"/>
-      <c r="G1216" s="1"/>
-      <c r="H1216" s="1"/>
-      <c r="I1216" s="1"/>
-      <c r="J1216" s="1"/>
-      <c r="K1216" s="1"/>
-      <c r="L1216" s="1"/>
+      <c r="A1216" s="1">
+        <v>1215.0</v>
+      </c>
+      <c r="B1216" s="2">
+        <v>45374.0</v>
+      </c>
+      <c r="C1216" s="3" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D1216" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1216" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1216" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1216" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1216" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1216" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1217">
-      <c r="B1217" s="2"/>
-      <c r="C1217" s="3"/>
-      <c r="D1217" s="1"/>
-      <c r="E1217" s="1"/>
-      <c r="F1217" s="1"/>
-      <c r="G1217" s="1"/>
-      <c r="H1217" s="1"/>
-      <c r="I1217" s="1"/>
-      <c r="J1217" s="1"/>
-      <c r="K1217" s="1"/>
-      <c r="L1217" s="1"/>
+      <c r="A1217" s="1">
+        <v>1216.0</v>
+      </c>
+      <c r="B1217" s="2">
+        <v>45375.0</v>
+      </c>
+      <c r="C1217" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D1217" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1217" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1217" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1217" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1217" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1217" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1218">
-      <c r="B1218" s="2"/>
-      <c r="C1218" s="3"/>
-      <c r="D1218" s="1"/>
-      <c r="E1218" s="1"/>
-      <c r="F1218" s="1"/>
-      <c r="G1218" s="1"/>
-      <c r="H1218" s="1"/>
-      <c r="I1218" s="1"/>
-      <c r="J1218" s="1"/>
-      <c r="K1218" s="1"/>
-      <c r="L1218" s="1"/>
+      <c r="A1218" s="1">
+        <v>1217.0</v>
+      </c>
+      <c r="B1218" s="2">
+        <v>45378.0</v>
+      </c>
+      <c r="C1218" s="3" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D1218" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1218" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1218" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1218" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1218" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1218" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1218" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1219">
-      <c r="B1219" s="2"/>
-      <c r="C1219" s="3"/>
-      <c r="D1219" s="1"/>
-      <c r="E1219" s="1"/>
-      <c r="F1219" s="1"/>
-      <c r="G1219" s="1"/>
-      <c r="H1219" s="1"/>
-      <c r="I1219" s="1"/>
-      <c r="J1219" s="1"/>
-      <c r="K1219" s="1"/>
-      <c r="L1219" s="1"/>
+      <c r="A1219" s="1">
+        <v>1218.0</v>
+      </c>
+      <c r="B1219" s="2">
+        <v>45379.0</v>
+      </c>
+      <c r="C1219" s="3" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D1219" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1219" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1219" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1219" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1219" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1220">
-      <c r="B1220" s="2"/>
-      <c r="C1220" s="3"/>
-      <c r="D1220" s="1"/>
-      <c r="E1220" s="1"/>
-      <c r="F1220" s="1"/>
-      <c r="G1220" s="1"/>
-      <c r="H1220" s="1"/>
-      <c r="I1220" s="1"/>
-      <c r="J1220" s="1"/>
-      <c r="K1220" s="1"/>
-      <c r="L1220" s="1"/>
+      <c r="A1220" s="1">
+        <v>1219.0</v>
+      </c>
+      <c r="B1220" s="2">
+        <v>45380.0</v>
+      </c>
+      <c r="C1220" s="3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D1220" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1220" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1220" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1220" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1220" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1220" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1221">
-      <c r="B1221" s="2"/>
-      <c r="C1221" s="3"/>
-      <c r="D1221" s="1"/>
-      <c r="E1221" s="1"/>
-      <c r="F1221" s="1"/>
-      <c r="G1221" s="1"/>
-      <c r="H1221" s="1"/>
-      <c r="I1221" s="1"/>
-      <c r="J1221" s="1"/>
-      <c r="K1221" s="1"/>
-      <c r="L1221" s="1"/>
+      <c r="A1221" s="1">
+        <v>1220.0</v>
+      </c>
+      <c r="B1221" s="2">
+        <v>45381.0</v>
+      </c>
+      <c r="C1221" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D1221" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1221" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1221" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1221" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1221" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1221" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1222">
-      <c r="B1222" s="2"/>
-      <c r="C1222" s="3"/>
-      <c r="D1222" s="1"/>
-      <c r="E1222" s="1"/>
-      <c r="F1222" s="1"/>
-      <c r="G1222" s="1"/>
-      <c r="H1222" s="1"/>
-      <c r="I1222" s="1"/>
-      <c r="J1222" s="1"/>
-      <c r="K1222" s="1"/>
-      <c r="L1222" s="1"/>
+      <c r="A1222" s="1">
+        <v>1221.0</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>45381.0</v>
+      </c>
+      <c r="C1222" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D1222" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1222" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1222" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1222" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1222" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1222" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1222" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1222" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1223">
-      <c r="B1223" s="2"/>
-      <c r="C1223" s="3"/>
-      <c r="D1223" s="1"/>
-      <c r="E1223" s="1"/>
-      <c r="F1223" s="1"/>
-      <c r="G1223" s="1"/>
-      <c r="H1223" s="1"/>
-      <c r="I1223" s="1"/>
-      <c r="J1223" s="1"/>
-      <c r="K1223" s="1"/>
-      <c r="L1223" s="1"/>
+      <c r="A1223" s="1">
+        <v>1222.0</v>
+      </c>
+      <c r="B1223" s="2">
+        <v>45383.0</v>
+      </c>
+      <c r="C1223" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D1223" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1223" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1223" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1223" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1223" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1224">
-      <c r="B1224" s="2"/>
-      <c r="C1224" s="3"/>
-      <c r="D1224" s="1"/>
-      <c r="E1224" s="1"/>
-      <c r="F1224" s="1"/>
-      <c r="G1224" s="1"/>
-      <c r="H1224" s="1"/>
-      <c r="I1224" s="1"/>
-      <c r="J1224" s="1"/>
-      <c r="K1224" s="1"/>
-      <c r="L1224" s="1"/>
+      <c r="A1224" s="1">
+        <v>1223.0</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>45384.0</v>
+      </c>
+      <c r="C1224" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D1224" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1224" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1224" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1224" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1224" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1224" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1224" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1225">
-      <c r="B1225" s="2"/>
-      <c r="C1225" s="3"/>
-      <c r="D1225" s="1"/>
-      <c r="E1225" s="1"/>
-      <c r="F1225" s="1"/>
-      <c r="G1225" s="1"/>
-      <c r="H1225" s="1"/>
-      <c r="I1225" s="1"/>
-      <c r="J1225" s="1"/>
-      <c r="K1225" s="1"/>
-      <c r="L1225" s="1"/>
+      <c r="A1225" s="1">
+        <v>1224.0</v>
+      </c>
+      <c r="B1225" s="2">
+        <v>45386.0</v>
+      </c>
+      <c r="C1225" s="3" t="s">
+        <v>2641</v>
+      </c>
+      <c r="D1225" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1225" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1225" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1225" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1225" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1225" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1225" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1225" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1226">
-      <c r="B1226" s="2"/>
-      <c r="C1226" s="3"/>
-      <c r="D1226" s="1"/>
-      <c r="E1226" s="1"/>
-      <c r="F1226" s="1"/>
-      <c r="G1226" s="1"/>
-      <c r="H1226" s="1"/>
-      <c r="I1226" s="1"/>
-      <c r="J1226" s="1"/>
-      <c r="K1226" s="1"/>
-      <c r="L1226" s="1"/>
+      <c r="A1226" s="1">
+        <v>1225.0</v>
+      </c>
+      <c r="B1226" s="2">
+        <v>45387.0</v>
+      </c>
+      <c r="C1226" s="3" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D1226" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1226" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1226" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1226" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1226" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1226" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1226" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1227">
-      <c r="B1227" s="2"/>
-      <c r="C1227" s="3"/>
-      <c r="D1227" s="1"/>
-      <c r="E1227" s="1"/>
-      <c r="F1227" s="1"/>
-      <c r="G1227" s="1"/>
-      <c r="H1227" s="1"/>
-      <c r="I1227" s="1"/>
-      <c r="J1227" s="1"/>
-      <c r="K1227" s="1"/>
-      <c r="L1227" s="1"/>
+      <c r="A1227" s="1">
+        <v>1226.0</v>
+      </c>
+      <c r="B1227" s="2">
+        <v>45396.0</v>
+      </c>
+      <c r="C1227" s="3" t="s">
+        <v>2643</v>
+      </c>
+      <c r="D1227" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1227" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1227" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1227" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1227" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1227" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1227" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1228">
-      <c r="B1228" s="2"/>
-      <c r="C1228" s="3"/>
-      <c r="D1228" s="1"/>
-      <c r="E1228" s="1"/>
-      <c r="F1228" s="1"/>
-      <c r="G1228" s="1"/>
-      <c r="H1228" s="1"/>
-      <c r="I1228" s="1"/>
-      <c r="J1228" s="1"/>
-      <c r="K1228" s="1"/>
-      <c r="L1228" s="1"/>
+      <c r="A1228" s="1">
+        <v>1227.0</v>
+      </c>
+      <c r="B1228" s="2">
+        <v>45397.0</v>
+      </c>
+      <c r="C1228" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D1228" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1228" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1228" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1228" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1228" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1229">
-      <c r="B1229" s="2"/>
-      <c r="C1229" s="3"/>
-      <c r="D1229" s="1"/>
-      <c r="E1229" s="1"/>
-      <c r="F1229" s="1"/>
-      <c r="G1229" s="1"/>
-      <c r="H1229" s="1"/>
-      <c r="I1229" s="1"/>
-      <c r="J1229" s="1"/>
-      <c r="K1229" s="1"/>
-      <c r="L1229" s="1"/>
+      <c r="A1229" s="1">
+        <v>1228.0</v>
+      </c>
+      <c r="B1229" s="2">
+        <v>45397.0</v>
+      </c>
+      <c r="C1229" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D1229" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1229" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1229" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1229" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1229" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1229" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1230">
-      <c r="B1230" s="2"/>
-      <c r="C1230" s="3"/>
-      <c r="D1230" s="1"/>
-      <c r="E1230" s="1"/>
-      <c r="F1230" s="1"/>
-      <c r="G1230" s="1"/>
-      <c r="H1230" s="1"/>
-      <c r="I1230" s="1"/>
-      <c r="J1230" s="1"/>
-      <c r="K1230" s="1"/>
-      <c r="L1230" s="1"/>
+      <c r="A1230" s="1">
+        <v>1229.0</v>
+      </c>
+      <c r="B1230" s="2">
+        <v>45398.0</v>
+      </c>
+      <c r="C1230" s="3" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1230" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1230" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1230" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1230" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1230" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1230" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1230" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1231">
-      <c r="B1231" s="2"/>
-      <c r="C1231" s="3"/>
-      <c r="D1231" s="1"/>
-      <c r="E1231" s="1"/>
-      <c r="F1231" s="1"/>
-      <c r="G1231" s="1"/>
-      <c r="H1231" s="1"/>
-      <c r="I1231" s="1"/>
-      <c r="J1231" s="1"/>
-      <c r="K1231" s="1"/>
-      <c r="L1231" s="1"/>
+      <c r="A1231" s="1">
+        <v>1230.0</v>
+      </c>
+      <c r="B1231" s="2">
+        <v>45398.0</v>
+      </c>
+      <c r="C1231" s="3" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D1231" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1231" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1231" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1231" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1231" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1231" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1231" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1232">
-      <c r="B1232" s="2"/>
-      <c r="C1232" s="3"/>
-      <c r="D1232" s="1"/>
-      <c r="E1232" s="1"/>
-      <c r="F1232" s="1"/>
-      <c r="G1232" s="1"/>
-      <c r="H1232" s="1"/>
-      <c r="I1232" s="1"/>
-      <c r="J1232" s="1"/>
-      <c r="K1232" s="1"/>
-      <c r="L1232" s="1"/>
+      <c r="A1232" s="1">
+        <v>1231.0</v>
+      </c>
+      <c r="B1232" s="2">
+        <v>45403.0</v>
+      </c>
+      <c r="C1232" s="3" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D1232" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1232" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1232" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1232" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1232" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1232" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1233">
-      <c r="B1233" s="2"/>
-      <c r="C1233" s="3"/>
-      <c r="D1233" s="1"/>
-      <c r="E1233" s="1"/>
-      <c r="F1233" s="1"/>
-      <c r="G1233" s="1"/>
-      <c r="H1233" s="1"/>
-      <c r="I1233" s="1"/>
-      <c r="J1233" s="1"/>
-      <c r="K1233" s="1"/>
-      <c r="L1233" s="1"/>
+      <c r="A1233" s="1">
+        <v>1232.0</v>
+      </c>
+      <c r="B1233" s="2">
+        <v>45403.0</v>
+      </c>
+      <c r="C1233" s="3" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D1233" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1233" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1233" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1233" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1233" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1234">
-      <c r="B1234" s="2"/>
-      <c r="C1234" s="3"/>
-      <c r="D1234" s="1"/>
-      <c r="E1234" s="1"/>
-      <c r="F1234" s="1"/>
-      <c r="G1234" s="1"/>
-      <c r="H1234" s="1"/>
-      <c r="I1234" s="1"/>
-      <c r="J1234" s="1"/>
-      <c r="K1234" s="1"/>
-      <c r="L1234" s="1"/>
+      <c r="A1234" s="1">
+        <v>1233.0</v>
+      </c>
+      <c r="B1234" s="2">
+        <v>45411.0</v>
+      </c>
+      <c r="C1234" s="3" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D1234" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1234" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1234" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1234" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1234" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1234" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1235">
-      <c r="B1235" s="2"/>
-      <c r="C1235" s="3"/>
-      <c r="D1235" s="1"/>
-      <c r="E1235" s="1"/>
-      <c r="F1235" s="1"/>
-      <c r="G1235" s="1"/>
-      <c r="H1235" s="1"/>
-      <c r="I1235" s="1"/>
-      <c r="J1235" s="1"/>
-      <c r="K1235" s="1"/>
-      <c r="L1235" s="1"/>
+      <c r="A1235" s="1">
+        <v>1234.0</v>
+      </c>
+      <c r="B1235" s="2">
+        <v>45418.0</v>
+      </c>
+      <c r="C1235" s="3" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D1235" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1235" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1235" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1235" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1235" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1236">
-      <c r="B1236" s="2"/>
-      <c r="C1236" s="3"/>
-      <c r="D1236" s="1"/>
-      <c r="E1236" s="1"/>
-      <c r="F1236" s="1"/>
-      <c r="G1236" s="1"/>
-      <c r="H1236" s="1"/>
-      <c r="I1236" s="1"/>
-      <c r="J1236" s="1"/>
-      <c r="K1236" s="1"/>
-      <c r="L1236" s="1"/>
+      <c r="A1236" s="1">
+        <v>1235.0</v>
+      </c>
+      <c r="B1236" s="2">
+        <v>45423.0</v>
+      </c>
+      <c r="C1236" s="3" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D1236" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1236" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1236" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1236" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1236" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1236" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1237">
-      <c r="B1237" s="2"/>
-      <c r="C1237" s="3"/>
-      <c r="D1237" s="1"/>
-      <c r="E1237" s="1"/>
-      <c r="F1237" s="1"/>
-      <c r="G1237" s="1"/>
-      <c r="H1237" s="1"/>
-      <c r="I1237" s="1"/>
-      <c r="J1237" s="1"/>
-      <c r="K1237" s="1"/>
-      <c r="L1237" s="1"/>
+      <c r="A1237" s="1">
+        <v>1236.0</v>
+      </c>
+      <c r="B1237" s="2">
+        <v>45424.0</v>
+      </c>
+      <c r="C1237" s="3" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D1237" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1237" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1237" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1237" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1237" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1238">
-      <c r="B1238" s="2"/>
-      <c r="C1238" s="3"/>
-      <c r="D1238" s="1"/>
-      <c r="E1238" s="1"/>
-      <c r="F1238" s="1"/>
-      <c r="G1238" s="1"/>
-      <c r="H1238" s="1"/>
-      <c r="I1238" s="1"/>
-      <c r="J1238" s="1"/>
-      <c r="K1238" s="1"/>
-      <c r="L1238" s="1"/>
+      <c r="A1238" s="1">
+        <v>1237.0</v>
+      </c>
+      <c r="B1238" s="2">
+        <v>45424.0</v>
+      </c>
+      <c r="C1238" s="3" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D1238" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1238" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1238" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1238" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1238" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1238" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1239">
-      <c r="B1239" s="2"/>
-      <c r="C1239" s="3"/>
-      <c r="D1239" s="1"/>
-      <c r="E1239" s="1"/>
-      <c r="F1239" s="1"/>
-      <c r="G1239" s="1"/>
-      <c r="H1239" s="1"/>
-      <c r="I1239" s="1"/>
-      <c r="J1239" s="1"/>
-      <c r="K1239" s="1"/>
-      <c r="L1239" s="1"/>
+      <c r="A1239" s="1">
+        <v>1238.0</v>
+      </c>
+      <c r="B1239" s="2">
+        <v>45425.0</v>
+      </c>
+      <c r="C1239" s="3" t="s">
+        <v>2655</v>
+      </c>
+      <c r="D1239" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1239" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1239" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1239" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1239" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1239" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1240">
-      <c r="B1240" s="2"/>
-      <c r="C1240" s="3"/>
-      <c r="D1240" s="1"/>
-      <c r="E1240" s="1"/>
-      <c r="F1240" s="1"/>
-      <c r="G1240" s="1"/>
-      <c r="H1240" s="1"/>
-      <c r="I1240" s="1"/>
-      <c r="J1240" s="1"/>
-      <c r="K1240" s="1"/>
-      <c r="L1240" s="1"/>
+      <c r="A1240" s="1">
+        <v>1239.0</v>
+      </c>
+      <c r="B1240" s="2">
+        <v>45429.0</v>
+      </c>
+      <c r="C1240" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D1240" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1240" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1240" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1240" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1240" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1240" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1240" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1240" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1241">
-      <c r="B1241" s="2"/>
-      <c r="C1241" s="3"/>
-      <c r="D1241" s="1"/>
-      <c r="E1241" s="1"/>
-      <c r="F1241" s="1"/>
-      <c r="G1241" s="1"/>
-      <c r="H1241" s="1"/>
-      <c r="I1241" s="1"/>
-      <c r="J1241" s="1"/>
-      <c r="K1241" s="1"/>
-      <c r="L1241" s="1"/>
+      <c r="A1241" s="1">
+        <v>1240.0</v>
+      </c>
+      <c r="B1241" s="2">
+        <v>45429.0</v>
+      </c>
+      <c r="C1241" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D1241" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1241" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1241" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1241" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1241" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1241" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1241" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1241" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1242">
-      <c r="B1242" s="2"/>
-      <c r="C1242" s="3"/>
-      <c r="D1242" s="1"/>
-      <c r="E1242" s="1"/>
-      <c r="F1242" s="1"/>
-      <c r="G1242" s="1"/>
-      <c r="H1242" s="1"/>
-      <c r="I1242" s="1"/>
-      <c r="J1242" s="1"/>
-      <c r="K1242" s="1"/>
-      <c r="L1242" s="1"/>
+      <c r="A1242" s="1">
+        <v>1241.0</v>
+      </c>
+      <c r="B1242" s="2">
+        <v>45434.0</v>
+      </c>
+      <c r="C1242" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D1242" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1242" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1242" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1242" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1242" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1242" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1242" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1242" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1243">
-      <c r="B1243" s="2"/>
-      <c r="C1243" s="3"/>
-      <c r="D1243" s="1"/>
-      <c r="E1243" s="1"/>
-      <c r="F1243" s="1"/>
-      <c r="G1243" s="1"/>
-      <c r="H1243" s="1"/>
-      <c r="I1243" s="1"/>
-      <c r="J1243" s="1"/>
-      <c r="K1243" s="1"/>
-      <c r="L1243" s="1"/>
+      <c r="A1243" s="1">
+        <v>1242.0</v>
+      </c>
+      <c r="B1243" s="2">
+        <v>45435.0</v>
+      </c>
+      <c r="C1243" s="3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D1243" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1243" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1243" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1243" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1243" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1244">
-      <c r="B1244" s="2"/>
-      <c r="C1244" s="3"/>
-      <c r="D1244" s="1"/>
-      <c r="E1244" s="1"/>
-      <c r="F1244" s="1"/>
-      <c r="G1244" s="1"/>
-      <c r="H1244" s="1"/>
-      <c r="I1244" s="1"/>
-      <c r="J1244" s="1"/>
-      <c r="K1244" s="1"/>
-      <c r="L1244" s="1"/>
+      <c r="A1244" s="1">
+        <v>1243.0</v>
+      </c>
+      <c r="B1244" s="2">
+        <v>45435.0</v>
+      </c>
+      <c r="C1244" s="3" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D1244" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1244" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1244" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1244" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1244" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1245">
-      <c r="B1245" s="2"/>
-      <c r="C1245" s="3"/>
-      <c r="D1245" s="1"/>
-      <c r="E1245" s="1"/>
-      <c r="F1245" s="1"/>
-      <c r="G1245" s="1"/>
-      <c r="H1245" s="1"/>
-      <c r="I1245" s="1"/>
-      <c r="J1245" s="1"/>
-      <c r="K1245" s="1"/>
-      <c r="L1245" s="1"/>
+      <c r="A1245" s="1">
+        <v>1244.0</v>
+      </c>
+      <c r="B1245" s="2">
+        <v>45438.0</v>
+      </c>
+      <c r="C1245" s="3" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D1245" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1245" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1245" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1245" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1245" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1245" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1246">
-      <c r="B1246" s="2"/>
-      <c r="C1246" s="3"/>
-      <c r="D1246" s="1"/>
-      <c r="E1246" s="1"/>
-      <c r="F1246" s="1"/>
-      <c r="G1246" s="1"/>
-      <c r="H1246" s="1"/>
-      <c r="I1246" s="1"/>
-      <c r="J1246" s="1"/>
-      <c r="K1246" s="1"/>
-      <c r="L1246" s="1"/>
+      <c r="A1246" s="1">
+        <v>1245.0</v>
+      </c>
+      <c r="B1246" s="2">
+        <v>45438.0</v>
+      </c>
+      <c r="C1246" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1246" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1246" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1246" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1246" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1246" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1246" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1247">
-      <c r="B1247" s="2"/>
-      <c r="C1247" s="3"/>
-      <c r="D1247" s="1"/>
-      <c r="E1247" s="1"/>
-      <c r="F1247" s="1"/>
-      <c r="G1247" s="1"/>
-      <c r="H1247" s="1"/>
-      <c r="I1247" s="1"/>
-      <c r="J1247" s="1"/>
-      <c r="K1247" s="1"/>
-      <c r="L1247" s="1"/>
+      <c r="A1247" s="1">
+        <v>1246.0</v>
+      </c>
+      <c r="B1247" s="2">
+        <v>45442.0</v>
+      </c>
+      <c r="C1247" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="D1247" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1247" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1247" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1247" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1247" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1247" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1247" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1248">
-      <c r="B1248" s="2"/>
-      <c r="C1248" s="3"/>
-      <c r="D1248" s="1"/>
-      <c r="E1248" s="1"/>
-      <c r="F1248" s="1"/>
-      <c r="G1248" s="1"/>
-      <c r="H1248" s="1"/>
-      <c r="I1248" s="1"/>
-      <c r="J1248" s="1"/>
-      <c r="K1248" s="1"/>
-      <c r="L1248" s="1"/>
+      <c r="A1248" s="1">
+        <v>1247.0</v>
+      </c>
+      <c r="B1248" s="2">
+        <v>45473.0</v>
+      </c>
+      <c r="C1248" s="3" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D1248" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1248" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1248" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1248" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1248" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1249">
-      <c r="B1249" s="2"/>
-      <c r="C1249" s="3"/>
-      <c r="D1249" s="1"/>
-      <c r="E1249" s="1"/>
-      <c r="F1249" s="1"/>
-      <c r="G1249" s="1"/>
-      <c r="H1249" s="1"/>
-      <c r="I1249" s="1"/>
-      <c r="J1249" s="1"/>
-      <c r="K1249" s="1"/>
-      <c r="L1249" s="1"/>
+      <c r="A1249" s="1">
+        <v>1248.0</v>
+      </c>
+      <c r="B1249" s="2">
+        <v>45493.0</v>
+      </c>
+      <c r="C1249" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D1249" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1249" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1249" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1249" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1249" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1249" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1250">
-      <c r="B1250" s="2"/>
-      <c r="C1250" s="3"/>
-      <c r="D1250" s="1"/>
-      <c r="E1250" s="1"/>
-      <c r="F1250" s="1"/>
-      <c r="G1250" s="1"/>
-      <c r="H1250" s="1"/>
-      <c r="I1250" s="1"/>
-      <c r="J1250" s="1"/>
-      <c r="K1250" s="1"/>
-      <c r="L1250" s="1"/>
+      <c r="A1250" s="1">
+        <v>1249.0</v>
+      </c>
+      <c r="B1250" s="2">
+        <v>45498.0</v>
+      </c>
+      <c r="C1250" s="3" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D1250" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1250" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1250" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1250" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1250" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1250" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1250" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1250" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1251">
-      <c r="B1251" s="2"/>
-      <c r="C1251" s="3"/>
-      <c r="D1251" s="1"/>
-      <c r="E1251" s="1"/>
-      <c r="F1251" s="1"/>
-      <c r="G1251" s="1"/>
-      <c r="H1251" s="1"/>
-      <c r="I1251" s="1"/>
-      <c r="J1251" s="1"/>
-      <c r="K1251" s="1"/>
-      <c r="L1251" s="1"/>
+      <c r="A1251" s="1">
+        <v>1250.0</v>
+      </c>
+      <c r="B1251" s="2">
+        <v>45515.0</v>
+      </c>
+      <c r="C1251" s="3" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D1251" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1251" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1251" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1251" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1251" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1251" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1251" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1252">
-      <c r="B1252" s="2"/>
-      <c r="C1252" s="3"/>
-      <c r="D1252" s="1"/>
-      <c r="E1252" s="1"/>
-      <c r="F1252" s="1"/>
-      <c r="G1252" s="1"/>
-      <c r="H1252" s="1"/>
-      <c r="I1252" s="1"/>
-      <c r="J1252" s="1"/>
-      <c r="K1252" s="1"/>
-      <c r="L1252" s="1"/>
+      <c r="A1252" s="1">
+        <v>1251.0</v>
+      </c>
+      <c r="B1252" s="2">
+        <v>45695.0</v>
+      </c>
+      <c r="C1252" s="3" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D1252" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1252" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1252" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1252" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1252" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1252" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1252" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1252" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1253">
-      <c r="B1253" s="2"/>
-      <c r="C1253" s="3"/>
-      <c r="D1253" s="1"/>
-      <c r="E1253" s="1"/>
-      <c r="F1253" s="1"/>
-      <c r="G1253" s="1"/>
-      <c r="H1253" s="1"/>
-      <c r="I1253" s="1"/>
-      <c r="J1253" s="1"/>
-      <c r="K1253" s="1"/>
-      <c r="L1253" s="1"/>
+      <c r="A1253" s="1">
+        <v>1252.0</v>
+      </c>
+      <c r="B1253" s="2">
+        <v>45723.0</v>
+      </c>
+      <c r="C1253" s="3" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D1253" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1253" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1253" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1253" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1253" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1253" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1253" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1253" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1254">
-      <c r="B1254" s="2"/>
-      <c r="C1254" s="3"/>
-      <c r="D1254" s="1"/>
-      <c r="E1254" s="1"/>
-      <c r="F1254" s="1"/>
-      <c r="G1254" s="1"/>
-      <c r="H1254" s="1"/>
-      <c r="I1254" s="1"/>
-      <c r="J1254" s="1"/>
-      <c r="K1254" s="1"/>
-      <c r="L1254" s="1"/>
+      <c r="A1254" s="1">
+        <v>1253.0</v>
+      </c>
+      <c r="B1254" s="2">
+        <v>45725.0</v>
+      </c>
+      <c r="C1254" s="3" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D1254" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1254" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1254" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1254" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1254" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1254" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1254" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1254" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1255">
-      <c r="B1255" s="2"/>
-      <c r="C1255" s="3"/>
-      <c r="D1255" s="1"/>
-      <c r="E1255" s="1"/>
-      <c r="F1255" s="1"/>
-      <c r="G1255" s="1"/>
-      <c r="H1255" s="1"/>
-      <c r="I1255" s="1"/>
-      <c r="J1255" s="1"/>
-      <c r="K1255" s="1"/>
-      <c r="L1255" s="1"/>
+      <c r="A1255" s="1">
+        <v>1254.0</v>
+      </c>
+      <c r="B1255" s="2">
+        <v>45732.0</v>
+      </c>
+      <c r="C1255" s="3" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D1255" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1255" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1255" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1255" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1255" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1255" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1255" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1255" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1255" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1256">
-      <c r="B1256" s="2"/>
-      <c r="C1256" s="3"/>
-      <c r="D1256" s="1"/>
-      <c r="E1256" s="1"/>
-      <c r="F1256" s="1"/>
-      <c r="G1256" s="1"/>
-      <c r="H1256" s="1"/>
-      <c r="I1256" s="1"/>
-      <c r="J1256" s="1"/>
-      <c r="K1256" s="1"/>
-      <c r="L1256" s="1"/>
+      <c r="A1256" s="1">
+        <v>1255.0</v>
+      </c>
+      <c r="B1256" s="2">
+        <v>45733.0</v>
+      </c>
+      <c r="C1256" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D1256" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1256" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1256" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1256" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1256" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1256" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1257">
-      <c r="B1257" s="2"/>
-      <c r="C1257" s="3"/>
-      <c r="D1257" s="1"/>
-      <c r="E1257" s="1"/>
-      <c r="F1257" s="1"/>
-      <c r="G1257" s="1"/>
-      <c r="H1257" s="1"/>
-      <c r="I1257" s="1"/>
-      <c r="J1257" s="1"/>
-      <c r="K1257" s="1"/>
-      <c r="L1257" s="1"/>
+      <c r="A1257" s="1">
+        <v>1256.0</v>
+      </c>
+      <c r="B1257" s="2">
+        <v>45192.0</v>
+      </c>
+      <c r="C1257" s="3" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D1257" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1257" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1257" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1257" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1257" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1257" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1257" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1257" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1258">
-      <c r="B1258" s="2"/>
-      <c r="C1258" s="3"/>
-      <c r="D1258" s="1"/>
-      <c r="E1258" s="1"/>
-      <c r="F1258" s="1"/>
-      <c r="G1258" s="1"/>
-      <c r="H1258" s="1"/>
-      <c r="I1258" s="1"/>
-      <c r="J1258" s="1"/>
-      <c r="K1258" s="1"/>
-      <c r="L1258" s="1"/>
+      <c r="A1258" s="1">
+        <v>1257.0</v>
+      </c>
+      <c r="B1258" s="2">
+        <v>45295.0</v>
+      </c>
+      <c r="C1258" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D1258" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E1258" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1258" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1258" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1258" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1258" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1258" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1258" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1259">
       <c r="B1259" s="2"/>

--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12332" uniqueCount="3151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12342" uniqueCount="3154">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -9464,6 +9464,15 @@
   </si>
   <si>
     <t>https://u.to/4zkwIg</t>
+  </si>
+  <si>
+    <t>369787755229872130</t>
+  </si>
+  <si>
+    <t>mr.su.</t>
+  </si>
+  <si>
+    <t>https://u.to/JEMyIg</t>
   </si>
 </sst>
 </file>
@@ -56610,9 +56619,39 @@
       <c r="A1234" s="1">
         <v>1233.0</v>
       </c>
-      <c r="B1234" s="3"/>
-      <c r="C1234" s="2"/>
-      <c r="D1234" s="7"/>
+      <c r="B1234" s="3">
+        <v>45739.0</v>
+      </c>
+      <c r="C1234" s="2" t="s">
+        <v>3151</v>
+      </c>
+      <c r="D1234" s="2" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E1234" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1234" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1234" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1234" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1234" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1234" s="4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="K1234" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1234" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="1">
@@ -65615,7 +65654,8 @@
     <hyperlink r:id="rId1085" ref="J1231"/>
     <hyperlink r:id="rId1086" ref="J1232"/>
     <hyperlink r:id="rId1087" ref="J1233"/>
+    <hyperlink r:id="rId1088" ref="J1234"/>
   </hyperlinks>
-  <drawing r:id="rId1088"/>
+  <drawing r:id="rId1089"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12342" uniqueCount="3154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12352" uniqueCount="3157">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -9473,6 +9473,15 @@
   </si>
   <si>
     <t>https://u.to/JEMyIg</t>
+  </si>
+  <si>
+    <t>953701527091044352</t>
+  </si>
+  <si>
+    <t>szymus6104</t>
+  </si>
+  <si>
+    <t>https://spin2win.run/auth/register?promo=wheel500</t>
   </si>
 </sst>
 </file>
@@ -56657,9 +56666,39 @@
       <c r="A1235" s="1">
         <v>1234.0</v>
       </c>
-      <c r="B1235" s="3"/>
-      <c r="C1235" s="2"/>
-      <c r="D1235" s="7"/>
+      <c r="B1235" s="3">
+        <v>45740.0</v>
+      </c>
+      <c r="C1235" s="2" t="s">
+        <v>3154</v>
+      </c>
+      <c r="D1235" s="2" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E1235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1235" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1235" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I1235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1235" s="4" t="s">
+        <v>3156</v>
+      </c>
+      <c r="K1235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1235" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="1">
@@ -65655,7 +65694,8 @@
     <hyperlink r:id="rId1086" ref="J1232"/>
     <hyperlink r:id="rId1087" ref="J1233"/>
     <hyperlink r:id="rId1088" ref="J1234"/>
+    <hyperlink r:id="rId1089" ref="J1235"/>
   </hyperlinks>
-  <drawing r:id="rId1089"/>
+  <drawing r:id="rId1090"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13598" uniqueCount="3168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13642" uniqueCount="3178">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -9515,6 +9515,36 @@
   </si>
   <si>
     <t>https://discord.gg/z3H5TXYF</t>
+  </si>
+  <si>
+    <t>1309269979857682524</t>
+  </si>
+  <si>
+    <t>mxc835</t>
+  </si>
+  <si>
+    <t>711406146702802964</t>
+  </si>
+  <si>
+    <t>matriccs</t>
+  </si>
+  <si>
+    <t>549155842629566484</t>
+  </si>
+  <si>
+    <t>.konstantinabramov</t>
+  </si>
+  <si>
+    <t>https://u.to/FM00Ig</t>
+  </si>
+  <si>
+    <t>599586174624989201</t>
+  </si>
+  <si>
+    <t>majcixvaa</t>
+  </si>
+  <si>
+    <t>https://steamlinks-short.com/s/937679556</t>
   </si>
 </sst>
 </file>
@@ -60485,37 +60515,165 @@
       <c r="A1237" s="1">
         <v>1236.0</v>
       </c>
-      <c r="B1237" s="2"/>
-      <c r="C1237" s="2"/>
-      <c r="D1237" s="3"/>
-      <c r="E1237" s="7"/>
+      <c r="B1237" s="2">
+        <v>45741.0</v>
+      </c>
+      <c r="C1237" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1237" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E1237" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="F1237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1237" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1237" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1237" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1237" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1237" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1237" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1237" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="1">
         <v>1237.0</v>
       </c>
-      <c r="B1238" s="2"/>
-      <c r="C1238" s="2"/>
-      <c r="D1238" s="3"/>
-      <c r="E1238" s="7"/>
+      <c r="B1238" s="2">
+        <v>45741.0</v>
+      </c>
+      <c r="C1238" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1238" s="3" t="s">
+        <v>3170</v>
+      </c>
+      <c r="E1238" s="3" t="s">
+        <v>3171</v>
+      </c>
+      <c r="F1238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1238" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1238" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1238" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1238" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1238" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1238" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1238" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="1">
         <v>1238.0</v>
       </c>
-      <c r="B1239" s="2"/>
-      <c r="C1239" s="2"/>
-      <c r="D1239" s="3"/>
-      <c r="E1239" s="7"/>
+      <c r="B1239" s="2">
+        <v>45743.0</v>
+      </c>
+      <c r="C1239" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1239" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E1239" s="3" t="s">
+        <v>3173</v>
+      </c>
+      <c r="F1239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1239" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1239" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1239" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1239" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1239" s="4" t="s">
+        <v>3174</v>
+      </c>
+      <c r="L1239" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="M1239" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="1">
         <v>1239.0</v>
       </c>
-      <c r="B1240" s="2"/>
-      <c r="C1240" s="2"/>
-      <c r="D1240" s="3"/>
-      <c r="E1240" s="7"/>
+      <c r="B1240" s="2">
+        <v>45743.0</v>
+      </c>
+      <c r="C1240" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1240" s="3" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E1240" s="3" t="s">
+        <v>3176</v>
+      </c>
+      <c r="F1240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1240" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1240" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1240" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1240" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1240" s="4" t="s">
+        <v>3177</v>
+      </c>
+      <c r="L1240" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1240" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="1">
@@ -69974,7 +70132,9 @@
     <hyperlink r:id="rId1089" ref="K1234"/>
     <hyperlink r:id="rId1090" ref="K1235"/>
     <hyperlink r:id="rId1091" ref="K1236"/>
+    <hyperlink r:id="rId1092" ref="K1239"/>
+    <hyperlink r:id="rId1093" ref="K1240"/>
   </hyperlinks>
-  <drawing r:id="rId1092"/>
+  <drawing r:id="rId1094"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14951" uniqueCount="3427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14962" uniqueCount="3430">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -10292,6 +10292,15 @@
   </si>
   <si>
     <t>dzheicjhxf</t>
+  </si>
+  <si>
+    <t>427009349454659584</t>
+  </si>
+  <si>
+    <t>peruya</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/3s67dxdf</t>
   </si>
 </sst>
 </file>
@@ -66303,9 +66312,42 @@
       <c r="A1360" s="1">
         <v>1359.0</v>
       </c>
-      <c r="B1360" s="2"/>
-      <c r="D1360" s="3"/>
-      <c r="E1360" s="3"/>
+      <c r="B1360" s="2">
+        <v>45744.0</v>
+      </c>
+      <c r="C1360" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1360" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E1360" s="3" t="s">
+        <v>3428</v>
+      </c>
+      <c r="F1360" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1360" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1360" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1360" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1360" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1360" s="4" t="s">
+        <v>3429</v>
+      </c>
+      <c r="L1360" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1360" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="1">
@@ -73864,7 +73906,8 @@
     <hyperlink r:id="rId1093" ref="K1355"/>
     <hyperlink r:id="rId1094" ref="K1356"/>
     <hyperlink r:id="rId1095" ref="K1357"/>
+    <hyperlink r:id="rId1096" ref="K1360"/>
   </hyperlinks>
-  <drawing r:id="rId1096"/>
+  <drawing r:id="rId1097"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14962" uniqueCount="3430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14984" uniqueCount="3436">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -10301,6 +10301,24 @@
   </si>
   <si>
     <t>https://tinyurl.com/3s67dxdf</t>
+  </si>
+  <si>
+    <t>948244172358451210</t>
+  </si>
+  <si>
+    <t>.kerensky.</t>
+  </si>
+  <si>
+    <t>https://steam-ticket50.com/8320521963</t>
+  </si>
+  <si>
+    <t>976462371696545802</t>
+  </si>
+  <si>
+    <t>zelix099</t>
+  </si>
+  <si>
+    <t>https://t.me/+YtxFBk0f6Jw4NGMx</t>
   </si>
 </sst>
 </file>
@@ -66346,42 +66364,90 @@
         <v>23</v>
       </c>
       <c r="M1360" s="1" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" s="1">
         <v>1360.0</v>
       </c>
-      <c r="B1361" s="2"/>
-      <c r="C1361" s="2"/>
-      <c r="D1361" s="3"/>
-      <c r="E1361" s="3"/>
-      <c r="F1361" s="1"/>
-      <c r="G1361" s="1"/>
-      <c r="H1361" s="1"/>
-      <c r="I1361" s="1"/>
-      <c r="J1361" s="1"/>
-      <c r="K1361" s="1"/>
-      <c r="L1361" s="1"/>
-      <c r="M1361" s="1"/>
+      <c r="B1361" s="2">
+        <v>45744.0</v>
+      </c>
+      <c r="C1361" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1361" s="3" t="s">
+        <v>3430</v>
+      </c>
+      <c r="E1361" s="3" t="s">
+        <v>3431</v>
+      </c>
+      <c r="F1361" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1361" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1361" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1361" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1361" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1361" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="L1361" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1361" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="1">
         <v>1361.0</v>
       </c>
-      <c r="B1362" s="2"/>
-      <c r="C1362" s="2"/>
-      <c r="D1362" s="3"/>
-      <c r="E1362" s="3"/>
-      <c r="F1362" s="1"/>
-      <c r="G1362" s="1"/>
-      <c r="H1362" s="1"/>
-      <c r="I1362" s="1"/>
-      <c r="J1362" s="1"/>
-      <c r="K1362" s="1"/>
-      <c r="L1362" s="1"/>
-      <c r="M1362" s="1"/>
+      <c r="B1362" s="2">
+        <v>45744.0</v>
+      </c>
+      <c r="C1362" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1362" s="3" t="s">
+        <v>3433</v>
+      </c>
+      <c r="E1362" s="3" t="s">
+        <v>3434</v>
+      </c>
+      <c r="F1362" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1362" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1362" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1362" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1362" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1362" s="4" t="s">
+        <v>3435</v>
+      </c>
+      <c r="L1362" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1362" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="1">
@@ -73907,7 +73973,9 @@
     <hyperlink r:id="rId1094" ref="K1356"/>
     <hyperlink r:id="rId1095" ref="K1357"/>
     <hyperlink r:id="rId1096" ref="K1360"/>
+    <hyperlink r:id="rId1097" ref="K1361"/>
+    <hyperlink r:id="rId1098" ref="K1362"/>
   </hyperlinks>
-  <drawing r:id="rId1097"/>
+  <drawing r:id="rId1099"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14984" uniqueCount="3436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14995" uniqueCount="3439">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -10319,6 +10319,15 @@
   </si>
   <si>
     <t>https://t.me/+YtxFBk0f6Jw4NGMx</t>
+  </si>
+  <si>
+    <t>1207185433860243476</t>
+  </si>
+  <si>
+    <t>8866_39073</t>
+  </si>
+  <si>
+    <t>https://steamticket-50.com/1053904196</t>
   </si>
 </sst>
 </file>
@@ -66453,18 +66462,42 @@
       <c r="A1363" s="1">
         <v>1362.0</v>
       </c>
-      <c r="B1363" s="2"/>
-      <c r="C1363" s="2"/>
-      <c r="D1363" s="3"/>
-      <c r="E1363" s="3"/>
-      <c r="F1363" s="1"/>
-      <c r="G1363" s="1"/>
-      <c r="H1363" s="1"/>
-      <c r="I1363" s="1"/>
-      <c r="J1363" s="1"/>
-      <c r="K1363" s="1"/>
-      <c r="L1363" s="1"/>
-      <c r="M1363" s="1"/>
+      <c r="B1363" s="2">
+        <v>45744.0</v>
+      </c>
+      <c r="C1363" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1363" s="3" t="s">
+        <v>3436</v>
+      </c>
+      <c r="E1363" s="3" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F1363" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1363" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1363" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1363" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1363" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1363" s="4" t="s">
+        <v>3438</v>
+      </c>
+      <c r="L1363" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1363" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="1">
@@ -73975,7 +74008,8 @@
     <hyperlink r:id="rId1096" ref="K1360"/>
     <hyperlink r:id="rId1097" ref="K1361"/>
     <hyperlink r:id="rId1098" ref="K1362"/>
+    <hyperlink r:id="rId1099" ref="K1363"/>
   </hyperlinks>
-  <drawing r:id="rId1099"/>
+  <drawing r:id="rId1100"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14995" uniqueCount="3439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15017" uniqueCount="3445">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -10328,6 +10328,24 @@
   </si>
   <si>
     <t>https://steamticket-50.com/1053904196</t>
+  </si>
+  <si>
+    <t>257215896144052244</t>
+  </si>
+  <si>
+    <t>dapurpleg</t>
+  </si>
+  <si>
+    <t>https://discord.com/invite/EYGuYCfch5</t>
+  </si>
+  <si>
+    <t>710903998705696860</t>
+  </si>
+  <si>
+    <t>r3throgam3r</t>
+  </si>
+  <si>
+    <t>https://discord.gg/DB6XsaXg</t>
   </si>
 </sst>
 </file>
@@ -66393,7 +66411,7 @@
         <v>3431</v>
       </c>
       <c r="F1361" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G1361" s="1" t="s">
         <v>37</v>
@@ -66503,35 +66521,83 @@
       <c r="A1364" s="1">
         <v>1363.0</v>
       </c>
-      <c r="B1364" s="2"/>
-      <c r="C1364" s="2"/>
-      <c r="D1364" s="3"/>
-      <c r="E1364" s="3"/>
-      <c r="F1364" s="1"/>
-      <c r="G1364" s="1"/>
-      <c r="H1364" s="1"/>
-      <c r="I1364" s="1"/>
-      <c r="J1364" s="1"/>
-      <c r="K1364" s="1"/>
-      <c r="L1364" s="1"/>
-      <c r="M1364" s="1"/>
+      <c r="B1364" s="2">
+        <v>45744.0</v>
+      </c>
+      <c r="C1364" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1364" s="3" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E1364" s="3" t="s">
+        <v>3440</v>
+      </c>
+      <c r="F1364" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1364" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1364" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1364" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1364" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1364" s="4" t="s">
+        <v>3441</v>
+      </c>
+      <c r="L1364" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1364" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="1">
         <v>1364.0</v>
       </c>
-      <c r="B1365" s="2"/>
-      <c r="C1365" s="2"/>
-      <c r="D1365" s="3"/>
-      <c r="E1365" s="3"/>
-      <c r="F1365" s="1"/>
-      <c r="G1365" s="1"/>
-      <c r="H1365" s="1"/>
-      <c r="I1365" s="1"/>
-      <c r="J1365" s="1"/>
-      <c r="K1365" s="1"/>
-      <c r="L1365" s="1"/>
-      <c r="M1365" s="1"/>
+      <c r="B1365" s="2">
+        <v>45744.0</v>
+      </c>
+      <c r="C1365" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1365" s="3" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E1365" s="3" t="s">
+        <v>3443</v>
+      </c>
+      <c r="F1365" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1365" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1365" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1365" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1365" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1365" s="4" t="s">
+        <v>3444</v>
+      </c>
+      <c r="L1365" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1365" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="1">
@@ -74009,7 +74075,9 @@
     <hyperlink r:id="rId1097" ref="K1361"/>
     <hyperlink r:id="rId1098" ref="K1362"/>
     <hyperlink r:id="rId1099" ref="K1363"/>
+    <hyperlink r:id="rId1100" ref="K1364"/>
+    <hyperlink r:id="rId1101" ref="K1365"/>
   </hyperlinks>
-  <drawing r:id="rId1100"/>
+  <drawing r:id="rId1102"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15017" uniqueCount="3445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15028" uniqueCount="3447">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -10346,6 +10346,12 @@
   </si>
   <si>
     <t>https://discord.gg/DB6XsaXg</t>
+  </si>
+  <si>
+    <t>797091759766765598</t>
+  </si>
+  <si>
+    <t>walker_wa</t>
   </si>
 </sst>
 </file>
@@ -66603,18 +66609,42 @@
       <c r="A1366" s="1">
         <v>1365.0</v>
       </c>
-      <c r="B1366" s="2"/>
-      <c r="C1366" s="2"/>
-      <c r="D1366" s="3"/>
-      <c r="E1366" s="3"/>
-      <c r="F1366" s="1"/>
-      <c r="G1366" s="1"/>
-      <c r="H1366" s="1"/>
-      <c r="I1366" s="1"/>
-      <c r="J1366" s="1"/>
-      <c r="K1366" s="1"/>
-      <c r="L1366" s="1"/>
-      <c r="M1366" s="1"/>
+      <c r="B1366" s="2">
+        <v>45745.0</v>
+      </c>
+      <c r="C1366" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D1366" s="3" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E1366" s="3" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F1366" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1366" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1366" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1366" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1366" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1366" s="4" t="s">
+        <v>3429</v>
+      </c>
+      <c r="L1366" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1366" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="1">
@@ -74077,7 +74107,8 @@
     <hyperlink r:id="rId1099" ref="K1363"/>
     <hyperlink r:id="rId1100" ref="K1364"/>
     <hyperlink r:id="rId1101" ref="K1365"/>
+    <hyperlink r:id="rId1102" ref="K1366"/>
   </hyperlinks>
-  <drawing r:id="rId1102"/>
+  <drawing r:id="rId1103"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15061" uniqueCount="3454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15083" uniqueCount="3458">
   <si>
     <t>NOUMBER</t>
   </si>
@@ -10373,6 +10373,18 @@
   </si>
   <si>
     <t>.akiz13a</t>
+  </si>
+  <si>
+    <t>1355348218539544608</t>
+  </si>
+  <si>
+    <t>lucas85453</t>
+  </si>
+  <si>
+    <t>1306358736377614456</t>
+  </si>
+  <si>
+    <t>kaellyn_898</t>
   </si>
 </sst>
 </file>
@@ -66794,35 +66806,83 @@
       <c r="A1370" s="1">
         <v>1369.0</v>
       </c>
-      <c r="B1370" s="2"/>
-      <c r="C1370" s="2"/>
-      <c r="D1370" s="3"/>
-      <c r="E1370" s="3"/>
-      <c r="F1370" s="1"/>
-      <c r="G1370" s="1"/>
-      <c r="H1370" s="1"/>
-      <c r="I1370" s="1"/>
-      <c r="J1370" s="1"/>
-      <c r="K1370" s="1"/>
-      <c r="L1370" s="1"/>
-      <c r="M1370" s="1"/>
+      <c r="B1370" s="2">
+        <v>45746.0</v>
+      </c>
+      <c r="C1370" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1370" s="3" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E1370" s="3" t="s">
+        <v>3455</v>
+      </c>
+      <c r="F1370" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1370" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1370" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1370" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1370" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1370" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="L1370" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1370" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="1">
         <v>1370.0</v>
       </c>
-      <c r="B1371" s="2"/>
-      <c r="C1371" s="2"/>
-      <c r="D1371" s="3"/>
-      <c r="E1371" s="3"/>
-      <c r="F1371" s="1"/>
-      <c r="G1371" s="1"/>
-      <c r="H1371" s="1"/>
-      <c r="I1371" s="1"/>
-      <c r="J1371" s="1"/>
-      <c r="K1371" s="1"/>
-      <c r="L1371" s="1"/>
-      <c r="M1371" s="1"/>
+      <c r="B1371" s="2">
+        <v>45652.0</v>
+      </c>
+      <c r="C1371" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1371" s="3" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E1371" s="3" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F1371" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1371" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1371" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1371" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1371" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1371" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1371" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="1">
@@ -74202,7 +74262,8 @@
     <hyperlink r:id="rId1101" ref="K1366"/>
     <hyperlink r:id="rId1102" ref="K1367"/>
     <hyperlink r:id="rId1103" ref="K1368"/>
+    <hyperlink r:id="rId1104" ref="K1370"/>
   </hyperlinks>
-  <drawing r:id="rId1104"/>
+  <drawing r:id="rId1105"/>
 </worksheet>
 </file>
--- a/tools/ExporterSheet.xlsx
+++ b/tools/ExporterSheet.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1373"/>
+  <dimension ref="A1:M1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5417,7 +5417,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>https://discord.gg/pornhub</t>
+          <t>https://discord.gg/mAxhFjvARq</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>oak6073</t>
+          <t>deleted_user_52158dd9d758</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>https://discord.gg/pornhub</t>
+          <t>https://discord.gg/mAxhFjvARq</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>https://discord.gg/pornhub</t>
+          <t>https://discord.gg/mAxhFjvARq</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5947,7 +5947,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -9847,7 +9847,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -9912,7 +9912,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -10562,7 +10562,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -11862,7 +11862,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -11927,7 +11927,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -12577,7 +12577,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -12642,7 +12642,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -12707,7 +12707,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -12772,7 +12772,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -12967,7 +12967,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -16242,7 +16242,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>deleted_user_a8027b3745c</t>
+          <t>deleted_user_a8027b3745c1</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -18882,7 +18882,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -19102,7 +19102,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>minhduc10a7</t>
+          <t>mduc_2811</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -19987,7 +19987,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -21482,7 +21482,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -25382,7 +25382,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -29112,7 +29112,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>seepy2</t>
+          <t>jap_flower</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -32727,7 +32727,7 @@
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -33962,7 +33962,7 @@
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -35847,7 +35847,7 @@
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -37237,7 +37237,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>slsasindu2</t>
+          <t>deleted_user_d3f08df5106a</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -38382,7 +38382,7 @@
       </c>
       <c r="M584" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -38447,7 +38447,7 @@
       </c>
       <c r="M585" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -38512,7 +38512,7 @@
       </c>
       <c r="M586" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -39487,7 +39487,7 @@
       </c>
       <c r="M601" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -41462,7 +41462,7 @@
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>dinnerbog5989</t>
+          <t>deleted_user_d5a2e5aa30bd</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
@@ -41592,7 +41592,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>chris050499</t>
+          <t>deleted_user_07717c6c5862</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
@@ -42242,7 +42242,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>zheax8905</t>
+          <t>deleted_user_d9e0bd040359</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
@@ -43192,7 +43192,7 @@
       </c>
       <c r="M658" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -43452,7 +43452,7 @@
       </c>
       <c r="M662" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -43517,7 +43517,7 @@
       </c>
       <c r="M663" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -44232,7 +44232,7 @@
       </c>
       <c r="M674" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -44297,7 +44297,7 @@
       </c>
       <c r="M675" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -44687,7 +44687,7 @@
       </c>
       <c r="M681" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -46377,7 +46377,7 @@
       </c>
       <c r="M707" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -46442,7 +46442,7 @@
       </c>
       <c r="M708" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -46962,7 +46962,7 @@
       </c>
       <c r="M716" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -47352,7 +47352,7 @@
       </c>
       <c r="M722" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -48132,7 +48132,7 @@
       </c>
       <c r="M734" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -48782,7 +48782,7 @@
       </c>
       <c r="M744" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -48847,7 +48847,7 @@
       </c>
       <c r="M745" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -48912,7 +48912,7 @@
       </c>
       <c r="M746" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -48977,7 +48977,7 @@
       </c>
       <c r="M747" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -50147,7 +50147,7 @@
       </c>
       <c r="M765" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -50537,7 +50537,7 @@
       </c>
       <c r="M771" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -51577,7 +51577,7 @@
       </c>
       <c r="M787" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -51967,7 +51967,7 @@
       </c>
       <c r="M793" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -52812,7 +52812,7 @@
       </c>
       <c r="M806" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -53982,7 +53982,7 @@
       </c>
       <c r="M824" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -57427,7 +57427,7 @@
       </c>
       <c r="M877" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -57557,7 +57557,7 @@
       </c>
       <c r="M879" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -60417,7 +60417,7 @@
       </c>
       <c r="M923" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -62302,7 +62302,7 @@
       </c>
       <c r="M952" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -63732,7 +63732,7 @@
       </c>
       <c r="M974" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -64967,7 +64967,7 @@
       </c>
       <c r="M993" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -66982,7 +66982,7 @@
       </c>
       <c r="M1024" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -67047,7 +67047,7 @@
       </c>
       <c r="M1025" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -67112,7 +67112,7 @@
       </c>
       <c r="M1026" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -67502,7 +67502,7 @@
       </c>
       <c r="M1032" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -67827,7 +67827,7 @@
       </c>
       <c r="M1037" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -68867,7 +68867,7 @@
       </c>
       <c r="M1053" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -72442,7 +72442,7 @@
       </c>
       <c r="M1108" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -72597,7 +72597,7 @@
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>deleted_user_d54e66d45a1</t>
+          <t>deleted_user_d54e66d45a1f</t>
         </is>
       </c>
       <c r="F1111" t="inlineStr">
@@ -85532,7 +85532,7 @@
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>laraxzx012</t>
+          <t>deleted_user_fba83ec9bd9d</t>
         </is>
       </c>
       <c r="F1310" t="inlineStr">
@@ -85767,7 +85767,7 @@
       </c>
       <c r="M1313" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -87027,7 +87027,7 @@
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>litenetwork_official</t>
+          <t>deleted_user_00e9620d893e</t>
         </is>
       </c>
       <c r="F1333" t="inlineStr">
@@ -87327,7 +87327,7 @@
       </c>
       <c r="M1337" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -87457,7 +87457,7 @@
       </c>
       <c r="M1339" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -87522,7 +87522,7 @@
       </c>
       <c r="M1340" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -88107,7 +88107,7 @@
       </c>
       <c r="M1349" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
@@ -88172,7 +88172,7 @@
       </c>
       <c r="M1350" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -88237,7 +88237,7 @@
       </c>
       <c r="M1351" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -88367,7 +88367,7 @@
       </c>
       <c r="M1353" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -88432,7 +88432,7 @@
       </c>
       <c r="M1354" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -88497,7 +88497,7 @@
       </c>
       <c r="M1355" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -88562,7 +88562,7 @@
       </c>
       <c r="M1356" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -88627,7 +88627,7 @@
       </c>
       <c r="M1357" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -88887,7 +88887,7 @@
       </c>
       <c r="M1361" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -88952,7 +88952,7 @@
       </c>
       <c r="M1362" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -89017,7 +89017,7 @@
       </c>
       <c r="M1363" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -89147,7 +89147,7 @@
       </c>
       <c r="M1365" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -89212,7 +89212,7 @@
       </c>
       <c r="M1366" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -89342,7 +89342,7 @@
       </c>
       <c r="M1368" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -89472,7 +89472,7 @@
       </c>
       <c r="M1370" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
     </row>
@@ -89668,6 +89668,201 @@
       <c r="M1373" t="inlineStr">
         <is>
           <t>UNKNOWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>1373</t>
+        </is>
+      </c>
+      <c r="B1374" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>PROJECT_CW</t>
+        </is>
+      </c>
+      <c r="D1374" t="inlineStr">
+        <is>
+          <t>812972922124763136</t>
+        </is>
+      </c>
+      <c r="E1374" t="inlineStr">
+        <is>
+          <t>quaresma007</t>
+        </is>
+      </c>
+      <c r="F1374" t="inlineStr">
+        <is>
+          <t>Automated Messaging Campaigns</t>
+        </is>
+      </c>
+      <c r="G1374" t="inlineStr">
+        <is>
+          <t>Phishing Website</t>
+        </is>
+      </c>
+      <c r="H1374" t="inlineStr">
+        <is>
+          <t>Cloned Steam Pages</t>
+        </is>
+      </c>
+      <c r="I1374" t="inlineStr">
+        <is>
+          <t>Steam Accounts</t>
+        </is>
+      </c>
+      <c r="J1374" t="inlineStr">
+        <is>
+          <t>Steam</t>
+        </is>
+      </c>
+      <c r="K1374" t="inlineStr">
+        <is>
+          <t>https://steamgiftcard.cfd/1053910953</t>
+        </is>
+      </c>
+      <c r="L1374" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="M1374" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>1374</t>
+        </is>
+      </c>
+      <c r="B1375" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>PROJECT_CW</t>
+        </is>
+      </c>
+      <c r="D1375" t="inlineStr">
+        <is>
+          <t>1117625423325581472</t>
+        </is>
+      </c>
+      <c r="E1375" t="inlineStr">
+        <is>
+          <t>lilpooh47</t>
+        </is>
+      </c>
+      <c r="F1375" t="inlineStr">
+        <is>
+          <t>Automated Messaging Campaigns</t>
+        </is>
+      </c>
+      <c r="G1375" t="inlineStr">
+        <is>
+          <t>Phishing Website</t>
+        </is>
+      </c>
+      <c r="H1375" t="inlineStr">
+        <is>
+          <t>Cloned Steam Pages</t>
+        </is>
+      </c>
+      <c r="I1375" t="inlineStr">
+        <is>
+          <t>Steam Accounts</t>
+        </is>
+      </c>
+      <c r="J1375" t="inlineStr">
+        <is>
+          <t>Steam</t>
+        </is>
+      </c>
+      <c r="K1375" t="inlineStr">
+        <is>
+          <t>https://steamgiftcard.cfd/1053910953</t>
+        </is>
+      </c>
+      <c r="L1375" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="M1375" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+      <c r="B1376" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>PROJECT_CW</t>
+        </is>
+      </c>
+      <c r="D1376" t="inlineStr">
+        <is>
+          <t>541980998569820160</t>
+        </is>
+      </c>
+      <c r="E1376" t="inlineStr">
+        <is>
+          <t>lucek6876</t>
+        </is>
+      </c>
+      <c r="F1376" t="inlineStr">
+        <is>
+          <t>Markdown URL Obfuscation</t>
+        </is>
+      </c>
+      <c r="G1376" t="inlineStr">
+        <is>
+          <t>Phishing Website</t>
+        </is>
+      </c>
+      <c r="H1376" t="inlineStr">
+        <is>
+          <t>Cloned Steam Pages</t>
+        </is>
+      </c>
+      <c r="I1376" t="inlineStr">
+        <is>
+          <t>Steam Accounts</t>
+        </is>
+      </c>
+      <c r="J1376" t="inlineStr">
+        <is>
+          <t>Steam</t>
+        </is>
+      </c>
+      <c r="K1376" t="inlineStr">
+        <is>
+          <t>https://tinyurl.com/296xr9aa</t>
+        </is>
+      </c>
+      <c r="L1376" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="M1376" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
         </is>
       </c>
     </row>
